--- a/app/Data.xlsx
+++ b/app/Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ЭтаКнига"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Рабочий стол\Археологическая карта СПБ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\archeomap_fullstack\backend\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2550240-D6B0-49B6-B595-9416F45456A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC10C024-3787-461A-A53B-5FF18B8C639E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATASET" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="468">
   <si>
     <t>ID</t>
   </si>
@@ -2742,6 +2742,23 @@
   </si>
   <si>
     <t>Петровская набережная, д. 6</t>
+  </si>
+  <si>
+    <t>0004_Церковь_Сошествия_Святого_Духа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В 1902-1912 годах по проекту академика архитектуры А.Ф. Красовского в Фарфоровой слободе, где жили рабочие и служащие Императорского фарфорового завода был построен Храм Сошествия Святого Духа. Храм находился на территории одного из старейших кладбищ Санкт-Петербурга — Спасо-Преображенского (Фарфоровское), которое образовалось в 1730 -х гг. Однако  храм прослужил недолго, в 1927 г. кладбище было закрыто, а в 1939 г. после Великой Отечественной войны в стенах обезглавленной церкви был устроен литейный цех. Здание простояло до 1966 г. и было взорвано при строительстве станции метро «Ломоносовская».
+В 2011 году Комитет по строительству Петербурга разрешил построить новый храм на участке старого. В 2016 году начались археологически работы на месте храма. В ходе работ исследовался фундамент церкви, были полностью обнажены сохранившиеся участки фундамента, которые включали в себя подвальные помещения, коммуникации и т.д. В настоящее время идут работы по возрождению храма.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">нач. XX вв. </t>
+  </si>
+  <si>
+    <t>В настоящее время на месте церкви идет строительство нового храма, который по облику будет приближен к первоначальному.</t>
+  </si>
+  <si>
+    <t>пер. Матюшенко, участок 1 (напротив дома №10, литера А по пер. Матюшенко).</t>
   </si>
 </sst>
 </file>
@@ -3382,11 +3399,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H1" sqref="H1:K1"/>
+      <selection pane="topRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1"/>
@@ -3576,9 +3593,38 @@
         <v>462</v>
       </c>
     </row>
+    <row r="5" spans="1:19" ht="19.95" customHeight="1">
+      <c r="A5" s="41">
+        <v>4</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>463</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>464</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="H5" s="41">
+        <v>59.877167999999998</v>
+      </c>
+      <c r="I5" s="41">
+        <v>30.440932</v>
+      </c>
+      <c r="J5" s="41" t="s">
+        <v>466</v>
+      </c>
+      <c r="K5" s="41" t="s">
+        <v>467</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations xWindow="1025" yWindow="473" count="13">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка" error="Здесь нужно ввести ширину в формате max_digits=9, decimal_places=6,                                 validators=[MinValueValidator(-90.0), MaxValueValidator(90.0)]_x000a_" sqref="H5:H1048576" xr:uid="{DF2EC6BC-1574-4015-BFEE-E167D0A72C00}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка" error="Здесь нужно ввести ширину в формате max_digits=9, decimal_places=6,                                 validators=[MinValueValidator(-90.0), MaxValueValidator(90.0)]_x000a_" sqref="H6:H1048576" xr:uid="{DF2EC6BC-1574-4015-BFEE-E167D0A72C00}">
       <formula1>-90</formula1>
       <formula2>90</formula2>
     </dataValidation>
@@ -3586,7 +3632,7 @@
       <formula1>-90</formula1>
       <formula2>90</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" errorTitle="Ошибка при вводе данных" error="Формат долготы:_x000a_max_digits=9, decimal_places=6,_x000a_validators=[MinValueValidator(-180.0), MaxValueValidator(180.0)" sqref="I5:I1048576" xr:uid="{3F258B1C-759F-422E-A8F9-D8EE088E89F3}">
+    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" errorTitle="Ошибка при вводе данных" error="Формат долготы:_x000a_max_digits=9, decimal_places=6,_x000a_validators=[MinValueValidator(-180.0), MaxValueValidator(180.0)" sqref="I6:I1048576" xr:uid="{3F258B1C-759F-422E-A8F9-D8EE088E89F3}">
       <formula1>-180</formula1>
       <formula2>180</formula2>
     </dataValidation>

--- a/app/Data.xlsx
+++ b/app/Data.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ЭтаКнига"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\archeomap_fullstack\backend\app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aleksey\Desktop\Археологическая карта СПБ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC10C024-3787-461A-A53B-5FF18B8C639E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="DATASET" sheetId="1" r:id="rId1"/>
     <sheet name="Choices" sheetId="2" r:id="rId2"/>
     <sheet name="Лист2" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="627">
   <si>
     <t>ID</t>
   </si>
@@ -90,18 +89,6 @@
   </si>
   <si>
     <t>Dating Choices</t>
-  </si>
-  <si>
-    <t>VI тыс. до н.э</t>
-  </si>
-  <si>
-    <t>II - нач. I тыс. до н.э</t>
-  </si>
-  <si>
-    <t>I тыс. до н.э - нач I тыс. н.э</t>
-  </si>
-  <si>
-    <t>кон. I тыс. н.э - нач. XVII в.</t>
   </si>
   <si>
     <t>1 пол. XVII в.</t>
@@ -139,24 +126,6 @@
 Во время археологических раскопок были обнаружены предметы быта XVIII века: фарфоровая и фаянсовая посуда, глиняная посуда, деревянные изделия, детские игрушки, фрагменты изразцов, стеклянные изделия, фрагменты голландских курительных трубок, кожаная обувь, почти целый сосуд из каменной массы для минеральной воды, аптечные (помадные) банки. Спустя пять лет результаты исследований были опубликованы в первой научно-популярной книге об археологии Петербурга и сопровождались графическими реконструкциями сценок бытовой жизни XVIII века.
 Эти археологические раскопки стали первыми научно-задокументированными работами в Ленинграде/Петербурге и положили начало новой в СССР дисциплине – городской археологии Нового времени.
 </t>
-  </si>
-  <si>
-    <r>
-      <t>Участок культурного слоя</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>, Хозяйственные постройки</t>
-    </r>
-  </si>
-  <si>
-    <t>Первые археологические раскопки в Петербурге</t>
   </si>
   <si>
     <t>Сейчас на месте проведения раскопок располагается асфальтовая дорога и тротуары по обеим сторонам – это Таможенный переулок.</t>
@@ -2709,9 +2678,6 @@
 </t>
   </si>
   <si>
-    <t>Культовые сооружения (Храмы/Церкви/Часовни), Погребения в пределах храмового комплекса</t>
-  </si>
-  <si>
     <t>На месте церкви Спаса-на-Сенной, взорванной в 1961 году, сейчас находится станция метро "Сенная площадь" и часовня. Реконструкция площади после сноса церкви изменила её исторический облик. Вместо храма, который был одной из значимых архитектурных доминант Санкт-Петербурга, появилась современная городская инфраструктура, практически не оставляющая следов от бывшего культового сооружения. Сейчас о существовании церкви на этом месте напоминает часовня и выложенные плиткой другого цвета границы изученного фундамента.</t>
   </si>
   <si>
@@ -2732,40 +2698,536 @@
     <t>1 пол. XVIII в., 2 пол. XVIII в., 1 пол. XIX в., 2 пол. XIX в.</t>
   </si>
   <si>
-    <t xml:space="preserve">Дворцы, инженерно-технические сооружения, участок культурного слоя </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Первая жилая постройка на территории Петербурга </t>
-  </si>
-  <si>
     <t>Сейчас Домик Петра I является филиалом Государственного Русского музея, там представлены предметы быта первой четверти XVIII века и личные вещи Петра I</t>
   </si>
   <si>
     <t>Петровская набережная, д. 6</t>
   </si>
   <si>
+    <t>кон. I тыс. н.э. - нач. XVII в.</t>
+  </si>
+  <si>
+    <t>VI тыс. до н.э.</t>
+  </si>
+  <si>
+    <t>II - нач. I тыс. до н.э.</t>
+  </si>
+  <si>
+    <t>I тыс. до н.э. - нач I тыс. н.э.</t>
+  </si>
+  <si>
+    <t>Санитарные захоронения</t>
+  </si>
+  <si>
+    <t>Кладбища</t>
+  </si>
+  <si>
+    <t>Одиночные захоронения</t>
+  </si>
+  <si>
+    <t>Клады\случайные находки</t>
+  </si>
+  <si>
+    <t>Жилые постройки</t>
+  </si>
+  <si>
+    <t>Общественные постройки</t>
+  </si>
+  <si>
+    <t>Хозйственные постройки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Промышленные постройки </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Постройки неизвестного назначения </t>
+  </si>
+  <si>
+    <t>Морские</t>
+  </si>
+  <si>
+    <t>Парки\архитектура малых форм</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Подводные памятники </t>
+  </si>
+  <si>
+    <t>Дворцы</t>
+  </si>
+  <si>
+    <t>Памятники доисторической эпохи (каменный и бронзовый век)</t>
+  </si>
+  <si>
+    <t>Памятники железного века и средневековья</t>
+  </si>
+  <si>
+    <t>Памятники эпохи шведского владычества</t>
+  </si>
+  <si>
+    <t>Участок культурного слоя</t>
+  </si>
+  <si>
+    <t>Могилы известных людей</t>
+  </si>
+  <si>
+    <t>Захоронение первостроителей Петербурга</t>
+  </si>
+  <si>
+    <t>Места сражений</t>
+  </si>
+  <si>
+    <t>Хозйственные постройки, Участок культурного слоя</t>
+  </si>
+  <si>
+    <t>Культовые сооружения (Храмы\Церкви\Часовни и др.)</t>
+  </si>
+  <si>
+    <t>Погребения в пределах храмового комплекса</t>
+  </si>
+  <si>
+    <t>Культовые сооружения (Храмы\Церкви\Часовни и др.), Погребения в пределах храмового комплекса</t>
+  </si>
+  <si>
+    <t>Инженерно-технические сооружения</t>
+  </si>
+  <si>
+    <t>Дворцы, Инженерно-технические сооружения, Участок культурного слоя</t>
+  </si>
+  <si>
+    <t>2 пол. XVIII в., 1 пол. XIX в., 2 пол. XIX в., 1 чт. XX в.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Первая жилая постройка на территории Санкт-Петербурга </t>
+  </si>
+  <si>
+    <t>Первые археологические работы на территории Санкт-Петербурга</t>
+  </si>
+  <si>
+    <t>Первые археологические работы в СПб, Первые археологические работы на территории Санкт-Петербурга</t>
+  </si>
+  <si>
+    <t>2012, 2013</t>
+  </si>
+  <si>
+    <t>2007, 2013</t>
+  </si>
+  <si>
+    <t>МАЭ РАН</t>
+  </si>
+  <si>
+    <t>"Актуальная археология"</t>
+  </si>
+  <si>
+    <t>"Ленпроектреставрация"</t>
+  </si>
+  <si>
+    <t>СЗНИИ культурного и природного наследия</t>
+  </si>
+  <si>
+    <t>Церковь Сошествия Святого Духа</t>
+  </si>
+  <si>
     <t>0004_Церковь_Сошествия_Святого_Духа</t>
   </si>
   <si>
-    <t xml:space="preserve">В 1902-1912 годах по проекту академика архитектуры А.Ф. Красовского в Фарфоровой слободе, где жили рабочие и служащие Императорского фарфорового завода был построен Храм Сошествия Святого Духа. Храм находился на территории одного из старейших кладбищ Санкт-Петербурга — Спасо-Преображенского (Фарфоровское), которое образовалось в 1730 -х гг. Однако  храм прослужил недолго, в 1927 г. кладбище было закрыто, а в 1939 г. после Великой Отечественной войны в стенах обезглавленной церкви был устроен литейный цех. Здание простояло до 1966 г. и было взорвано при строительстве станции метро «Ломоносовская».
-В 2011 году Комитет по строительству Петербурга разрешил построить новый храм на участке старого. В 2016 году начались археологически работы на месте храма. В ходе работ исследовался фундамент церкви, были полностью обнажены сохранившиеся участки фундамента, которые включали в себя подвальные помещения, коммуникации и т.д. В настоящее время идут работы по возрождению храма.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">нач. XX вв. </t>
-  </si>
-  <si>
-    <t>В настоящее время на месте церкви идет строительство нового храма, который по облику будет приближен к первоначальному.</t>
-  </si>
-  <si>
-    <t>пер. Матюшенко, участок 1 (напротив дома №10, литера А по пер. Матюшенко).</t>
+    <t>Lorem ipsum</t>
+  </si>
+  <si>
+    <t>Козье Болото. Кладбище первостроителей Петербурга</t>
+  </si>
+  <si>
+    <t>0005_Козье_Болото</t>
+  </si>
+  <si>
+    <t>0006_Двенадцать коллегий</t>
+  </si>
+  <si>
+    <t>Раскопки у здания Двенадцати коллегий</t>
+  </si>
+  <si>
+    <t>0007_Большая_Посадская</t>
+  </si>
+  <si>
+    <t>0011_Летний сад</t>
+  </si>
+  <si>
+    <t>0008_Шуваловский_проезд</t>
+  </si>
+  <si>
+    <t>0010_Государев бастион</t>
+  </si>
+  <si>
+    <t>0012_Могила Джакомо Кваренги</t>
+  </si>
+  <si>
+    <t>0013_Охтинский мыс</t>
+  </si>
+  <si>
+    <t>0014_Ниен</t>
+  </si>
+  <si>
+    <t>0015_Троце-Петровский храм</t>
+  </si>
+  <si>
+    <t>0016_Раскопки на Кронверке</t>
+  </si>
+  <si>
+    <t>0017_Благовещенское_кладбище</t>
+  </si>
+  <si>
+    <t>0018_Сампсониевское кладбище</t>
+  </si>
+  <si>
+    <t>0019_Завод_Ф.К.Сан-Галли</t>
+  </si>
+  <si>
+    <t>0020_Якорь_на_стрелке</t>
+  </si>
+  <si>
+    <t>0021_Малоохтинское_кладбище</t>
+  </si>
+  <si>
+    <t>0022_Комендантское кладбище</t>
+  </si>
+  <si>
+    <t>0023_Наугольные_палаты</t>
+  </si>
+  <si>
+    <t>0024_Колтовская_слобода</t>
+  </si>
+  <si>
+    <t>0025_Бумагопрядильная_фабрика_Возрождение</t>
+  </si>
+  <si>
+    <t>0026_Казармы_Преображенского_полка</t>
+  </si>
+  <si>
+    <t>0027_Выборгское_римско-католическое_кладбище</t>
+  </si>
+  <si>
+    <t>0028_Митрофаньевское_кладбище</t>
+  </si>
+  <si>
+    <t>0029_Калинкинское_кладбище</t>
+  </si>
+  <si>
+    <t>0030_Старый_Гостинный_двор</t>
+  </si>
+  <si>
+    <t>0031_Аптекарская_набережная</t>
+  </si>
+  <si>
+    <t>0032_Угол_Среднего_пр._и_7-ой_линии_В.О</t>
+  </si>
+  <si>
+    <t>0033_Военная_академия_связи</t>
+  </si>
+  <si>
+    <t>0034_Невский_пр_д_68</t>
+  </si>
+  <si>
+    <t>0035_Стременная_ул_д_15</t>
+  </si>
+  <si>
+    <t>0036_Флигель_Зимнего_дворца</t>
+  </si>
+  <si>
+    <t>0037_Дом_Кваренги</t>
+  </si>
+  <si>
+    <t>0038_Бонов_дом</t>
+  </si>
+  <si>
+    <t>0039_Часовня_Никольский_рынок</t>
+  </si>
+  <si>
+    <t>0040_Троицкий_собор</t>
+  </si>
+  <si>
+    <t>Шуваловский проезд (Крюйсов переход)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дерево-земляной Нарышкин бастион </t>
+  </si>
+  <si>
+    <t>0009_Дерево_Земляной_Нарышкин бастион</t>
+  </si>
+  <si>
+    <t xml:space="preserve">«Петербургская Троя» – уникальный многослойный памятник археологии </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Шведский город Ниен </t>
+  </si>
+  <si>
+    <t>Фундаменты Троице-Петровского собора</t>
+  </si>
+  <si>
+    <t>Солдатские могилы на Кронверке Петропавловской крепости</t>
+  </si>
+  <si>
+    <t>Благовещенское кладбище</t>
+  </si>
+  <si>
+    <t>Сампсониевское кладбище</t>
+  </si>
+  <si>
+    <t>Чугунолитейный и механический завод Ф. К. Сан-Галли</t>
+  </si>
+  <si>
+    <t xml:space="preserve">«Якорь петровской эпохи» на стрелке </t>
+  </si>
+  <si>
+    <t>Малоохтинское православное кладбище</t>
+  </si>
+  <si>
+    <t>Наугольные палаты Меншиковского дворца</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Слобода Колтовского полка </t>
+  </si>
+  <si>
+    <t>Археологическое исследование Бумагопрядильной фабрики «Возрождение» и культурного слоя рубежа XVIII-XIX вв. – 1 трети XIX в. (Археологические исследования в излучине реки Невы)</t>
+  </si>
+  <si>
+    <t>Археологическое исследование территории комплекса казарм Лейб-гвардии Преображенского полка</t>
+  </si>
+  <si>
+    <t>Митрофаньевское кладбище</t>
+  </si>
+  <si>
+    <t>Калинкинское кладбище</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Старый Гостиный двор </t>
+  </si>
+  <si>
+    <t>Участок Аптекарской набережной</t>
+  </si>
+  <si>
+    <t>Застройка на углу Среднего пр. и 7-й линии Васильевского острова</t>
+  </si>
+  <si>
+    <t>Участок бывшего полкового плаца Преображенского полка и Николаевской Академии Генерального штаба</t>
+  </si>
+  <si>
+    <t>Участок по адресу Невский пр., д. 68</t>
+  </si>
+  <si>
+    <t>Участок по адресу ул. Стремянная, д. 15</t>
+  </si>
+  <si>
+    <t>Флигель Третьего Зимнего дворца</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Усадьба Джакомо Кваренги в Царском селе </t>
+  </si>
+  <si>
+    <t>Бонов дом</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Часовня во дворе Никольского рынка </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Троице-Петровский собор </t>
+  </si>
+  <si>
+    <t>0041_Лошадиное_кладбище</t>
+  </si>
+  <si>
+    <t>ИСТОЧНИК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0042_Ниеншанц </t>
+  </si>
+  <si>
+    <t>0043_Охта_1</t>
+  </si>
+  <si>
+    <t>0045_Зотов_бастион</t>
+  </si>
+  <si>
+    <t>0046_Надзорные_работы_в_Петропавловской_крепости</t>
+  </si>
+  <si>
+    <t>0047_Невская_куртина_Петропавловскойи_крепости</t>
+  </si>
+  <si>
+    <t>0048_Нарышкин_бастион</t>
+  </si>
+  <si>
+    <t>0049_Лютеранский_собор_Св_Анны_в_ППК</t>
+  </si>
+  <si>
+    <t>0050_Крепостной_канал_ППК</t>
+  </si>
+  <si>
+    <t>0051_ППС_в_ППК</t>
+  </si>
+  <si>
+    <t>0052_Канецелярия_правительствующего_Сената_в_ППК</t>
+  </si>
+  <si>
+    <t>0053_Меншиков_бастион_ППК</t>
+  </si>
+  <si>
+    <t>0054_Инженерный_дом_ППК</t>
+  </si>
+  <si>
+    <t>0055_Трубецкой_бастион_ППК</t>
+  </si>
+  <si>
+    <t>0057_Иоанновский_равелин_ППК</t>
+  </si>
+  <si>
+    <t>0056_Обер_офицерская_гауптвахта_ППК</t>
+  </si>
+  <si>
+    <t>0058_Двор_Великокняжеской_усыпальницы_ППК</t>
+  </si>
+  <si>
+    <t>0059_Захоронение_жертв_красного_террора_у_Головкина_Б_ППК</t>
+  </si>
+  <si>
+    <t>0060_Крепость_Орешек</t>
+  </si>
+  <si>
+    <t>0044_Спасский_погост_Охтинский_мыс</t>
+  </si>
+  <si>
+    <t>лекции, приуроченные к конференции\выставке</t>
+  </si>
+  <si>
+    <t>0061_Комплекс_Стоянок_каменного_Сестрорецкий_разлив_1-6</t>
+  </si>
+  <si>
+    <t>0062_Стоянки_каменного_века_Тарховская_и_Глиняный_ручей</t>
+  </si>
+  <si>
+    <t>0063_Стоянка_каменного_века_Лахтинская</t>
+  </si>
+  <si>
+    <t>0064_Позднесредневековые_поселения_в_устье_реки_Ижоры</t>
+  </si>
+  <si>
+    <t>0065_Земляной_редут_в_Красном_селе</t>
+  </si>
+  <si>
+    <t>0066_Штерн_шанец_в_пос_Саперный</t>
+  </si>
+  <si>
+    <t>0067_Земляной_шанец_в_Усть_Ижоре</t>
+  </si>
+  <si>
+    <t>0068_Осиновецкий_редут_Земляная_крепость_в_Осиновой_роще</t>
+  </si>
+  <si>
+    <t>0069_Углежогные_кучи_Сосновая_гора</t>
+  </si>
+  <si>
+    <t>0070_Поиск_места_Невской_битвы</t>
+  </si>
+  <si>
+    <t>0071_Ландскрона</t>
+  </si>
+  <si>
+    <t>0072_Санитарное_захоронение_на_территории_Ниена</t>
+  </si>
+  <si>
+    <t>0073_Невское_устье</t>
+  </si>
+  <si>
+    <t>0074_Спасское_село</t>
+  </si>
+  <si>
+    <t>0075_Позднесредневековый_могильник_в_курдонере_Шереметевского_дворца</t>
+  </si>
+  <si>
+    <t>0076_Большой_двор_Зимнего_дворца</t>
+  </si>
+  <si>
+    <t>0077_Исследования_на_месте_Архива_Государственного_совета</t>
+  </si>
+  <si>
+    <t>0078_Певческий_проезд</t>
+  </si>
+  <si>
+    <t>0079_Летний_дворец_Екатерины_1</t>
+  </si>
+  <si>
+    <t>0080_Екатерингофский_дворец</t>
+  </si>
+  <si>
+    <t>0081_Каналы_Главного_Адмиралтейства</t>
+  </si>
+  <si>
+    <t>0082_Адмиралтейский_канал</t>
+  </si>
+  <si>
+    <t>0083_Церковь_Благовещения_Пресвятой_Богородицы_лейб-гвардии_Конного_полка</t>
+  </si>
+  <si>
+    <t>0084_Церковь_Рождества_Богородицы</t>
+  </si>
+  <si>
+    <t>0085_Церковь_Рождества_Христова_на_Песках</t>
+  </si>
+  <si>
+    <t>0086_Церковь_Божией_Матери_Всех_Скорбящих_Радости</t>
+  </si>
+  <si>
+    <t>0087_Церковь_во_имя_св_ап_Матфея_и_Покрова_Пресвятой_Богородицы</t>
+  </si>
+  <si>
+    <t>0088_Церковь_Спаса_Происхождения_честных_древ</t>
+  </si>
+  <si>
+    <t>0089_Церковь_Покрова_Богродицы_в_селе_Рыбацком</t>
+  </si>
+  <si>
+    <t>0090_Троицкая_церковь_в_Гавани</t>
+  </si>
+  <si>
+    <t>0091_Троице-Сергиева_пустынь</t>
+  </si>
+  <si>
+    <t>0092_Стрельнинский(Константиновский)_дворец</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0093_Дворец_Орлова_в_Орловском_парке</t>
+  </si>
+  <si>
+    <t>0097_Нижний_и_Верхний_парк_Петергоф</t>
+  </si>
+  <si>
+    <t>0096_Английский_парк_Петергоф</t>
+  </si>
+  <si>
+    <t>0095_Парк_Александрия_Петергоф</t>
+  </si>
+  <si>
+    <t>0094_Монплезир_сад_Петергоф</t>
+  </si>
+  <si>
+    <t>0098_Ломоносов</t>
+  </si>
+  <si>
+    <t>0099_Александровский_парк_Пушкин</t>
+  </si>
+  <si>
+    <t>0100_Екатеринский_парк_Пушкин</t>
+  </si>
+  <si>
+    <t>0101_Церковь_свт_Василия_Великого_в_Осиновой_роще</t>
+  </si>
+  <si>
+    <t>0102_Летний_дворец_Петра_в_парке_Дубки</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2893,6 +3355,43 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -2984,7 +3483,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3118,6 +3617,30 @@
     <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -3397,23 +3920,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:T151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C11" sqref="C11"/>
+      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B104" sqref="B104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="19.899999999999999" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="5" style="41" customWidth="1"/>
-    <col min="2" max="19" width="20.77734375" style="41" customWidth="1"/>
-    <col min="20" max="16384" width="8.88671875" style="41"/>
+    <col min="2" max="7" width="20.7109375" style="41" customWidth="1"/>
+    <col min="8" max="8" width="25.85546875" style="41" customWidth="1"/>
+    <col min="9" max="9" width="25.42578125" style="41" customWidth="1"/>
+    <col min="10" max="19" width="20.7109375" style="41" customWidth="1"/>
+    <col min="20" max="20" width="9" customWidth="1"/>
+    <col min="21" max="16384" width="8.85546875" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="30" customHeight="1">
+    <row r="1" spans="1:20" ht="30" customHeight="1">
       <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
@@ -3426,35 +3953,35 @@
       <c r="D1" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="H1" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="I1" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="45" t="s">
+      <c r="J1" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="45" t="s">
+      <c r="K1" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="46" t="s">
+      <c r="L1" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="46" t="s">
+      <c r="M1" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="46" t="s">
         <v>14</v>
-      </c>
-      <c r="N1" s="46" t="s">
-        <v>15</v>
       </c>
       <c r="O1" s="46" t="s">
         <v>16</v>
@@ -3471,86 +3998,96 @@
       <c r="S1" s="46" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" ht="19.95" customHeight="1">
+      <c r="T1" s="1" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="61.15" customHeight="1">
       <c r="A2" s="42">
         <v>1</v>
       </c>
       <c r="B2" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="42">
+      <c r="G2" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="41" t="s">
+        <v>478</v>
+      </c>
+      <c r="I2" s="41" t="s">
+        <v>487</v>
+      </c>
+      <c r="J2" s="42">
         <v>59.941445000000002</v>
       </c>
-      <c r="I2" s="44">
+      <c r="K2" s="44">
         <v>30.303364999999999</v>
       </c>
-      <c r="J2" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
+      <c r="L2" s="42">
+        <v>1952</v>
+      </c>
+      <c r="M2" s="42" t="s">
+        <v>490</v>
+      </c>
       <c r="N2" s="42"/>
       <c r="O2" s="42" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="P2" s="43"/>
       <c r="Q2" s="42"/>
       <c r="R2" s="42"/>
       <c r="S2" s="42"/>
     </row>
-    <row r="3" spans="1:19" ht="19.95" customHeight="1">
+    <row r="3" spans="1:20" ht="56.45" customHeight="1">
       <c r="A3" s="42">
         <v>2</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="C3" s="44" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="D3" s="42" t="s">
-        <v>452</v>
-      </c>
-      <c r="E3" s="44" t="s">
-        <v>28</v>
+        <v>446</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>447</v>
       </c>
       <c r="F3" s="44" t="s">
-        <v>453</v>
-      </c>
-      <c r="G3" s="42"/>
-      <c r="H3" s="44">
+        <v>448</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>484</v>
+      </c>
+      <c r="H3" s="41" t="s">
+        <v>481</v>
+      </c>
+      <c r="J3" s="44">
         <v>59.927303000000002</v>
       </c>
-      <c r="I3" s="44">
+      <c r="K3" s="44">
         <v>30.320246000000001</v>
       </c>
-      <c r="J3" s="42" t="s">
-        <v>454</v>
-      </c>
-      <c r="K3" s="44" t="s">
-        <v>455</v>
-      </c>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
+      <c r="L3" s="42" t="s">
+        <v>488</v>
+      </c>
+      <c r="M3" s="42" t="s">
+        <v>269</v>
+      </c>
       <c r="N3" s="42"/>
       <c r="O3" s="42"/>
       <c r="P3" s="42"/>
@@ -3558,122 +4095,1541 @@
       <c r="R3" s="42"/>
       <c r="S3" s="42"/>
     </row>
-    <row r="4" spans="1:19" ht="19.95" customHeight="1">
+    <row r="4" spans="1:20" ht="49.9" customHeight="1">
       <c r="A4" s="41">
         <v>3</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="E4" s="41" t="s">
-        <v>458</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="H4" s="2">
+        <v>452</v>
+      </c>
+      <c r="F4" s="41" t="s">
+        <v>453</v>
+      </c>
+      <c r="G4" s="41" t="s">
+        <v>451</v>
+      </c>
+      <c r="H4" s="41" t="s">
+        <v>483</v>
+      </c>
+      <c r="I4" s="41" t="s">
+        <v>485</v>
+      </c>
+      <c r="J4" s="2">
         <v>59.953077</v>
       </c>
-      <c r="I4" s="2">
+      <c r="K4" s="2">
         <v>30.331022000000001</v>
       </c>
-      <c r="J4" s="41" t="s">
-        <v>461</v>
-      </c>
-      <c r="K4" s="41" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="19.95" customHeight="1">
+      <c r="L4" s="41" t="s">
+        <v>489</v>
+      </c>
+      <c r="M4" s="41" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="51.6" customHeight="1">
       <c r="A5" s="41">
         <v>4</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>463</v>
-      </c>
-      <c r="C5" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>494</v>
+      </c>
+      <c r="D5" s="44" t="s">
+        <v>496</v>
+      </c>
+      <c r="G5" s="44"/>
+      <c r="J5" s="44">
+        <v>59.877167999999998</v>
+      </c>
+      <c r="K5" s="41">
+        <v>30.440932</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="19.899999999999999" customHeight="1">
+      <c r="A6" s="41">
+        <v>5</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>498</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="D6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="J6" s="41">
+        <v>59.957765000000002</v>
+      </c>
+      <c r="K6" s="41">
+        <v>30.311627000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="19.899999999999999" customHeight="1">
+      <c r="A7" s="41">
+        <v>6</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>499</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>500</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="J7" s="2">
+        <v>59.940340999999997</v>
+      </c>
+      <c r="K7" s="41">
+        <v>30.301055999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="19.899999999999999" customHeight="1">
+      <c r="A8" s="41">
+        <v>7</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>501</v>
+      </c>
+      <c r="C8" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="J8" s="50">
+        <v>59.958939999999998</v>
+      </c>
+      <c r="K8" s="41">
+        <v>30.324515000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="19.899999999999999" customHeight="1">
+      <c r="A9" s="41">
+        <v>8</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>503</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="J9" s="51">
+        <v>59.941507000000001</v>
+      </c>
+      <c r="K9" s="41">
+        <v>30.315812000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="19.899999999999999" customHeight="1">
+      <c r="A10" s="41">
+        <v>9</v>
+      </c>
+      <c r="B10" s="41" t="s">
+        <v>536</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>535</v>
+      </c>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50">
+        <v>59.948915</v>
+      </c>
+      <c r="K10" s="41">
+        <v>30.316936999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="19.899999999999999" customHeight="1">
+      <c r="A11" s="41">
+        <v>10</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>504</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="I11" s="50"/>
+      <c r="J11" s="41">
+        <v>59.949952000000003</v>
+      </c>
+      <c r="K11" s="41">
+        <v>30.319932999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="19.899999999999999" customHeight="1">
+      <c r="A12" s="41">
+        <v>11</v>
+      </c>
+      <c r="B12" s="41" t="s">
+        <v>502</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I12" s="50"/>
+      <c r="J12" s="52">
+        <v>59.944929999999999</v>
+      </c>
+      <c r="K12" s="50">
+        <v>30.335570000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="19.899999999999999" customHeight="1">
+      <c r="A13" s="41">
+        <v>12</v>
+      </c>
+      <c r="B13" s="41" t="s">
+        <v>505</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J13" s="50">
+        <v>59.903441000000001</v>
+      </c>
+      <c r="K13" s="50">
+        <v>30.369356</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="19.899999999999999" customHeight="1">
+      <c r="A14" s="41">
+        <v>13</v>
+      </c>
+      <c r="B14" s="41" t="s">
+        <v>506</v>
+      </c>
+      <c r="C14" s="52" t="s">
+        <v>537</v>
+      </c>
+      <c r="J14" s="52">
+        <v>59.943702999999999</v>
+      </c>
+      <c r="K14" s="52">
+        <v>30.407413999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="19.899999999999999" customHeight="1">
+      <c r="A15" s="41">
+        <v>14</v>
+      </c>
+      <c r="B15" s="41" t="s">
+        <v>507</v>
+      </c>
+      <c r="C15" s="41" t="s">
+        <v>538</v>
+      </c>
+      <c r="I15" s="53"/>
+      <c r="J15" s="41">
+        <v>59.943702999999999</v>
+      </c>
+      <c r="K15" s="41">
+        <v>30.407413999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" s="56" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A16" s="56">
+        <v>15</v>
+      </c>
+      <c r="B16" s="56" t="s">
+        <v>508</v>
+      </c>
+      <c r="C16" s="56" t="s">
+        <v>539</v>
+      </c>
+      <c r="I16" s="57"/>
+      <c r="J16" s="56">
+        <v>59.953789999999998</v>
+      </c>
+      <c r="K16" s="56">
+        <v>30.32666</v>
+      </c>
+      <c r="T16" s="58"/>
+    </row>
+    <row r="17" spans="1:11" ht="19.899999999999999" customHeight="1">
+      <c r="A17" s="41">
+        <v>16</v>
+      </c>
+      <c r="B17" s="41" t="s">
+        <v>509</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="I17" s="50"/>
+      <c r="J17" s="41">
+        <v>59.954835000000003</v>
+      </c>
+      <c r="K17" s="41">
+        <v>30.316552999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="19.899999999999999" customHeight="1">
+      <c r="A18" s="41">
+        <v>17</v>
+      </c>
+      <c r="B18" s="41" t="s">
+        <v>510</v>
+      </c>
+      <c r="C18" s="54" t="s">
+        <v>541</v>
+      </c>
+      <c r="I18" s="49"/>
+      <c r="J18" s="41">
+        <v>59.94614</v>
+      </c>
+      <c r="K18" s="41">
+        <v>30.273309999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="19.899999999999999" customHeight="1">
+      <c r="A19" s="41">
+        <v>18</v>
+      </c>
+      <c r="B19" s="41" t="s">
+        <v>511</v>
+      </c>
+      <c r="C19" s="41" t="s">
+        <v>542</v>
+      </c>
+      <c r="I19" s="55"/>
+      <c r="J19" s="41">
+        <v>59.966700000000003</v>
+      </c>
+      <c r="K19" s="41">
+        <v>30.344380000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="19.899999999999999" customHeight="1">
+      <c r="A20" s="41">
+        <v>19</v>
+      </c>
+      <c r="B20" s="41" t="s">
+        <v>512</v>
+      </c>
+      <c r="C20" s="41" t="s">
+        <v>543</v>
+      </c>
+      <c r="I20" s="55"/>
+      <c r="J20" s="41">
+        <v>59.923139999999997</v>
+      </c>
+      <c r="K20" s="41">
+        <v>30.358540000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="19.899999999999999" customHeight="1">
+      <c r="A21" s="41">
+        <v>20</v>
+      </c>
+      <c r="B21" s="41" t="s">
+        <v>513</v>
+      </c>
+      <c r="C21" s="41" t="s">
+        <v>544</v>
+      </c>
+      <c r="I21" s="55"/>
+      <c r="J21" s="41">
+        <v>59.943986000000002</v>
+      </c>
+      <c r="K21" s="41">
+        <v>30.306280000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="19.899999999999999" customHeight="1">
+      <c r="A22" s="41">
+        <v>21</v>
+      </c>
+      <c r="B22" s="41" t="s">
+        <v>514</v>
+      </c>
+      <c r="C22" s="41" t="s">
+        <v>545</v>
+      </c>
+      <c r="I22" s="55"/>
+      <c r="J22" s="41">
+        <v>59.932250000000003</v>
+      </c>
+      <c r="K22" s="41">
+        <v>30.404810000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="19.899999999999999" customHeight="1">
+      <c r="A23" s="41">
+        <v>22</v>
+      </c>
+      <c r="B23" s="41" t="s">
+        <v>515</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="I23" s="50"/>
+      <c r="J23" s="41">
+        <v>59.950313999999999</v>
+      </c>
+      <c r="K23" s="41">
+        <v>30.317125000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="19.899999999999999" customHeight="1">
+      <c r="A24" s="41">
+        <v>23</v>
+      </c>
+      <c r="B24" s="41" t="s">
+        <v>516</v>
+      </c>
+      <c r="C24" s="41" t="s">
+        <v>546</v>
+      </c>
+      <c r="I24" s="55"/>
+      <c r="J24" s="41">
+        <v>59.938654999999997</v>
+      </c>
+      <c r="K24" s="41">
+        <v>30.294332000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="19.899999999999999" customHeight="1">
+      <c r="A25" s="41">
+        <v>24</v>
+      </c>
+      <c r="B25" s="41" t="s">
+        <v>517</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="I25" s="50"/>
+      <c r="J25" s="41">
+        <v>59.964122000000003</v>
+      </c>
+      <c r="K25" s="41">
+        <v>30.275727</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="19.899999999999999" customHeight="1">
+      <c r="A26" s="41">
+        <v>25</v>
+      </c>
+      <c r="B26" s="41" t="s">
+        <v>518</v>
+      </c>
+      <c r="C26" s="41" t="s">
+        <v>548</v>
+      </c>
+      <c r="I26" s="55"/>
+      <c r="J26" s="41">
+        <v>59.957552999999997</v>
+      </c>
+      <c r="K26" s="41">
+        <v>30.406538999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="19.899999999999999" customHeight="1">
+      <c r="A27" s="41">
+        <v>26</v>
+      </c>
+      <c r="B27" s="41" t="s">
+        <v>519</v>
+      </c>
+      <c r="C27" s="41" t="s">
+        <v>549</v>
+      </c>
+      <c r="I27" s="55"/>
+      <c r="J27" s="41">
+        <v>59.942659999999997</v>
+      </c>
+      <c r="K27" s="41">
+        <v>30.365303000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="19.899999999999999" customHeight="1">
+      <c r="A28" s="41">
+        <v>27</v>
+      </c>
+      <c r="B28" s="41" t="s">
+        <v>520</v>
+      </c>
+      <c r="C28" s="41" t="s">
+        <v>263</v>
+      </c>
+      <c r="I28" s="55"/>
+      <c r="J28" s="41">
+        <v>59.966664000000002</v>
+      </c>
+      <c r="K28" s="41">
+        <v>30.368334999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="19.899999999999999" customHeight="1">
+      <c r="A29" s="41">
+        <v>28</v>
+      </c>
+      <c r="B29" s="41" t="s">
+        <v>521</v>
+      </c>
+      <c r="C29" s="41" t="s">
+        <v>550</v>
+      </c>
+      <c r="I29" s="55"/>
+      <c r="J29" s="41">
+        <v>59.896695999999999</v>
+      </c>
+      <c r="K29" s="41">
+        <v>30.301172000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="19.899999999999999" customHeight="1">
+      <c r="A30" s="41">
+        <v>29</v>
+      </c>
+      <c r="B30" s="41" t="s">
+        <v>522</v>
+      </c>
+      <c r="C30" s="41" t="s">
+        <v>551</v>
+      </c>
+      <c r="I30" s="55"/>
+      <c r="J30" s="41">
+        <v>59.912706</v>
+      </c>
+      <c r="K30" s="41">
+        <v>30.273254000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="19.899999999999999" customHeight="1">
+      <c r="A31" s="41">
+        <v>30</v>
+      </c>
+      <c r="B31" s="41" t="s">
+        <v>523</v>
+      </c>
+      <c r="C31" s="41" t="s">
+        <v>552</v>
+      </c>
+      <c r="J31" s="41">
+        <v>59.944068000000001</v>
+      </c>
+      <c r="K31" s="41">
+        <v>30.297663</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="19.899999999999999" customHeight="1">
+      <c r="A32" s="41">
+        <v>31</v>
+      </c>
+      <c r="B32" s="41" t="s">
+        <v>524</v>
+      </c>
+      <c r="C32" s="41" t="s">
+        <v>553</v>
+      </c>
+      <c r="J32" s="41">
+        <v>59.973868000000003</v>
+      </c>
+      <c r="K32" s="41">
+        <v>30.326269</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="19.899999999999999" customHeight="1">
+      <c r="A33" s="41">
+        <v>32</v>
+      </c>
+      <c r="B33" s="41" t="s">
+        <v>525</v>
+      </c>
+      <c r="C33" s="41" t="s">
+        <v>554</v>
+      </c>
+      <c r="I33" s="55"/>
+      <c r="J33" s="41">
+        <v>59.942346000000001</v>
+      </c>
+      <c r="K33" s="41">
+        <v>30.278013999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="19.899999999999999" customHeight="1">
+      <c r="A34" s="41">
+        <v>33</v>
+      </c>
+      <c r="B34" s="41" t="s">
+        <v>526</v>
+      </c>
+      <c r="C34" s="41" t="s">
+        <v>555</v>
+      </c>
+      <c r="I34" s="55"/>
+      <c r="J34" s="41">
+        <v>59.941412</v>
+      </c>
+      <c r="K34" s="41">
+        <v>30.374711999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="19.899999999999999" customHeight="1">
+      <c r="A35" s="41">
+        <v>34</v>
+      </c>
+      <c r="B35" s="41" t="s">
+        <v>527</v>
+      </c>
+      <c r="C35" s="41" t="s">
+        <v>556</v>
+      </c>
+      <c r="I35" s="55"/>
+      <c r="J35" s="41">
+        <v>59.933388000000001</v>
+      </c>
+      <c r="K35" s="41">
+        <v>30.344911</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="19.899999999999999" customHeight="1">
+      <c r="A36" s="41">
+        <v>35</v>
+      </c>
+      <c r="B36" s="41" t="s">
+        <v>528</v>
+      </c>
+      <c r="C36" s="41" t="s">
+        <v>557</v>
+      </c>
+      <c r="I36" s="55"/>
+      <c r="J36" s="41">
+        <v>59.930599000000001</v>
+      </c>
+      <c r="K36" s="41">
+        <v>30.352163999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="19.899999999999999" customHeight="1">
+      <c r="A37" s="41">
+        <v>36</v>
+      </c>
+      <c r="B37" s="41" t="s">
+        <v>529</v>
+      </c>
+      <c r="C37" s="41" t="s">
+        <v>558</v>
+      </c>
+      <c r="I37" s="55"/>
+      <c r="J37" s="41">
+        <v>59.938912999999999</v>
+      </c>
+      <c r="K37" s="41">
+        <v>30.312488999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="19.899999999999999" customHeight="1">
+      <c r="A38" s="41">
+        <v>37</v>
+      </c>
+      <c r="B38" s="41" t="s">
+        <v>530</v>
+      </c>
+      <c r="C38" s="41" t="s">
+        <v>559</v>
+      </c>
+      <c r="I38" s="55"/>
+      <c r="J38" s="41">
+        <v>59.719620999999997</v>
+      </c>
+      <c r="K38" s="41">
+        <v>30.396276</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="19.899999999999999" customHeight="1">
+      <c r="A39" s="41">
+        <v>38</v>
+      </c>
+      <c r="B39" s="41" t="s">
+        <v>531</v>
+      </c>
+      <c r="C39" s="55" t="s">
+        <v>560</v>
+      </c>
+      <c r="I39" s="55"/>
+      <c r="J39" s="41">
+        <v>59.945456999999998</v>
+      </c>
+      <c r="K39" s="41">
+        <v>30.283287999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="19.899999999999999" customHeight="1">
+      <c r="A40" s="41">
+        <v>39</v>
+      </c>
+      <c r="B40" s="41" t="s">
+        <v>532</v>
+      </c>
+      <c r="C40" s="41" t="s">
+        <v>561</v>
+      </c>
+      <c r="I40" s="55"/>
+      <c r="J40" s="41">
+        <v>59.920706000000003</v>
+      </c>
+      <c r="K40" s="41">
+        <v>30.301760999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="19.899999999999999" customHeight="1">
+      <c r="A41" s="41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="41" t="s">
+        <v>533</v>
+      </c>
+      <c r="C41" s="41" t="s">
+        <v>562</v>
+      </c>
+      <c r="I41" s="55"/>
+      <c r="J41" s="41">
+        <v>59.953744</v>
+      </c>
+      <c r="K41" s="41">
+        <v>30.326692999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="19.899999999999999" customHeight="1">
+      <c r="A42" s="41">
+        <v>41</v>
+      </c>
+      <c r="B42" s="41" t="s">
+        <v>563</v>
+      </c>
+      <c r="I42" s="55"/>
+    </row>
+    <row r="43" spans="1:11" ht="19.899999999999999" customHeight="1">
+      <c r="A43" s="41">
+        <v>42</v>
+      </c>
+      <c r="B43" s="41" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="19.899999999999999" customHeight="1">
+      <c r="A44" s="41">
+        <v>43</v>
+      </c>
+      <c r="B44" s="41" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="19.899999999999999" customHeight="1">
+      <c r="A45" s="41">
+        <v>44</v>
+      </c>
+      <c r="B45" s="41" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="19.899999999999999" customHeight="1">
+      <c r="A46" s="41">
+        <v>45</v>
+      </c>
+      <c r="B46" s="41" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="19.899999999999999" customHeight="1">
+      <c r="A47" s="41">
+        <v>46</v>
+      </c>
+      <c r="B47" s="41" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="19.899999999999999" customHeight="1">
+      <c r="A48" s="41">
+        <v>47</v>
+      </c>
+      <c r="B48" s="41" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" ht="19.899999999999999" customHeight="1">
+      <c r="A49" s="41">
+        <v>48</v>
+      </c>
+      <c r="B49" s="41" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" ht="19.899999999999999" customHeight="1">
+      <c r="A50" s="41">
+        <v>49</v>
+      </c>
+      <c r="B50" s="41" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" ht="19.899999999999999" customHeight="1">
+      <c r="A51" s="41">
+        <v>50</v>
+      </c>
+      <c r="B51" s="41" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" ht="19.899999999999999" customHeight="1">
+      <c r="A52" s="41">
+        <v>51</v>
+      </c>
+      <c r="B52" s="41" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" ht="19.899999999999999" customHeight="1">
+      <c r="A53" s="41">
+        <v>52</v>
+      </c>
+      <c r="B53" s="41" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" ht="19.899999999999999" customHeight="1">
+      <c r="A54" s="41">
+        <v>53</v>
+      </c>
+      <c r="B54" s="41" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" ht="19.899999999999999" customHeight="1">
+      <c r="A55" s="41">
+        <v>54</v>
+      </c>
+      <c r="B55" s="41" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" ht="19.899999999999999" customHeight="1">
+      <c r="A56" s="41">
+        <v>55</v>
+      </c>
+      <c r="B56" s="41" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" ht="19.899999999999999" customHeight="1">
+      <c r="A57" s="41">
+        <v>56</v>
+      </c>
+      <c r="B57" s="41" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" ht="19.899999999999999" customHeight="1">
+      <c r="A58" s="41">
+        <v>57</v>
+      </c>
+      <c r="B58" s="41" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" ht="19.899999999999999" customHeight="1">
+      <c r="A59" s="41">
+        <v>58</v>
+      </c>
+      <c r="B59" s="41" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" ht="19.899999999999999" customHeight="1">
+      <c r="A60" s="41">
+        <v>59</v>
+      </c>
+      <c r="B60" s="41" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" ht="19.899999999999999" customHeight="1">
+      <c r="A61" s="41">
+        <v>60</v>
+      </c>
+      <c r="B61" s="41" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" ht="19.899999999999999" customHeight="1">
+      <c r="A62" s="41">
+        <v>61</v>
+      </c>
+      <c r="B62" s="41" t="s">
+        <v>585</v>
+      </c>
+      <c r="T62" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" ht="19.899999999999999" customHeight="1">
+      <c r="A63" s="41">
+        <v>62</v>
+      </c>
+      <c r="B63" s="41" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" ht="19.899999999999999" customHeight="1">
+      <c r="A64" s="41">
+        <v>63</v>
+      </c>
+      <c r="B64" s="41" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="19.899999999999999" customHeight="1">
+      <c r="A65" s="41">
+        <v>64</v>
+      </c>
+      <c r="B65" s="41" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="19.899999999999999" customHeight="1">
+      <c r="A66" s="41">
+        <v>65</v>
+      </c>
+      <c r="B66" s="41" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="19.899999999999999" customHeight="1">
+      <c r="A67" s="41">
+        <v>66</v>
+      </c>
+      <c r="B67" s="41" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="19.899999999999999" customHeight="1">
+      <c r="A68" s="41">
+        <v>67</v>
+      </c>
+      <c r="B68" s="41" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="19.899999999999999" customHeight="1">
+      <c r="A69" s="41">
+        <v>68</v>
+      </c>
+      <c r="B69" s="41" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="19.899999999999999" customHeight="1">
+      <c r="A70" s="41">
+        <v>69</v>
+      </c>
+      <c r="B70" s="41" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="19.899999999999999" customHeight="1">
+      <c r="A71" s="41">
+        <v>70</v>
+      </c>
+      <c r="B71" s="41" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="19.899999999999999" customHeight="1">
+      <c r="A72" s="41">
+        <v>71</v>
+      </c>
+      <c r="B72" s="41" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="19.899999999999999" customHeight="1">
+      <c r="A73" s="41">
+        <v>72</v>
+      </c>
+      <c r="B73" s="41" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="19.899999999999999" customHeight="1">
+      <c r="A74" s="41">
+        <v>73</v>
+      </c>
+      <c r="B74" s="41" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="19.899999999999999" customHeight="1">
+      <c r="A75" s="41">
+        <v>74</v>
+      </c>
+      <c r="B75" s="41" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="19.899999999999999" customHeight="1">
+      <c r="A76" s="41">
+        <v>75</v>
+      </c>
+      <c r="B76" s="41" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="19.899999999999999" customHeight="1">
+      <c r="A77" s="41">
+        <v>76</v>
+      </c>
+      <c r="B77" s="41" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="19.899999999999999" customHeight="1">
+      <c r="A78" s="41">
+        <v>77</v>
+      </c>
+      <c r="B78" s="41" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="19.899999999999999" customHeight="1">
+      <c r="A79" s="41">
+        <v>78</v>
+      </c>
+      <c r="B79" s="41" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="19.899999999999999" customHeight="1">
+      <c r="A80" s="41">
+        <v>79</v>
+      </c>
+      <c r="B80" s="41" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="19.899999999999999" customHeight="1">
+      <c r="A81" s="41">
+        <v>80</v>
+      </c>
+      <c r="B81" s="41" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="19.899999999999999" customHeight="1">
+      <c r="A82" s="41">
+        <v>81</v>
+      </c>
+      <c r="B82" s="41" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="19.899999999999999" customHeight="1">
+      <c r="A83" s="41">
+        <v>82</v>
+      </c>
+      <c r="B83" s="41" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="19.899999999999999" customHeight="1">
+      <c r="A84" s="41">
+        <v>83</v>
+      </c>
+      <c r="B84" s="41" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="19.899999999999999" customHeight="1">
+      <c r="A85" s="41">
+        <v>84</v>
+      </c>
+      <c r="B85" s="41" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="19.899999999999999" customHeight="1">
+      <c r="A86" s="41">
+        <v>85</v>
+      </c>
+      <c r="B86" s="41" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="19.899999999999999" customHeight="1">
+      <c r="A87" s="41">
+        <v>86</v>
+      </c>
+      <c r="B87" s="41" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="19.899999999999999" customHeight="1">
+      <c r="A88" s="41">
+        <v>87</v>
+      </c>
+      <c r="B88" s="41" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="19.899999999999999" customHeight="1">
+      <c r="A89" s="41">
+        <v>88</v>
+      </c>
+      <c r="B89" s="41" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="19.899999999999999" customHeight="1">
+      <c r="A90" s="41">
+        <v>89</v>
+      </c>
+      <c r="B90" s="41" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="19.899999999999999" customHeight="1">
+      <c r="A91" s="41">
+        <v>90</v>
+      </c>
+      <c r="B91" s="41" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="19.899999999999999" customHeight="1">
+      <c r="A92" s="41">
+        <v>91</v>
+      </c>
+      <c r="B92" s="41" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="19.899999999999999" customHeight="1">
+      <c r="A93" s="41">
+        <v>92</v>
+      </c>
+      <c r="B93" s="41" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="19.899999999999999" customHeight="1">
+      <c r="A94" s="41">
+        <v>93</v>
+      </c>
+      <c r="B94" s="41" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="19.899999999999999" customHeight="1">
+      <c r="A95" s="41">
+        <v>94</v>
+      </c>
+      <c r="B95" s="41" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="19.899999999999999" customHeight="1">
+      <c r="A96" s="41">
+        <v>95</v>
+      </c>
+      <c r="B96" s="41" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="19.899999999999999" customHeight="1">
+      <c r="A97" s="41">
+        <v>96</v>
+      </c>
+      <c r="B97" s="41" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="19.899999999999999" customHeight="1">
+      <c r="A98" s="41">
+        <v>97</v>
+      </c>
+      <c r="B98" s="41" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="19.899999999999999" customHeight="1">
+      <c r="A99" s="41">
+        <v>98</v>
+      </c>
+      <c r="B99" s="41" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="19.899999999999999" customHeight="1">
+      <c r="A100" s="41">
+        <v>99</v>
+      </c>
+      <c r="B100" s="41" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="19.899999999999999" customHeight="1">
+      <c r="A101" s="41">
+        <v>100</v>
+      </c>
+      <c r="B101" s="41" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="19.899999999999999" customHeight="1">
+      <c r="A102" s="41">
+        <v>101</v>
+      </c>
+      <c r="B102" s="41" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="19.899999999999999" customHeight="1">
+      <c r="A103" s="41">
+        <v>102</v>
+      </c>
+      <c r="B103" s="41" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="19.899999999999999" customHeight="1">
+      <c r="A104" s="41">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="19.899999999999999" customHeight="1">
+      <c r="A105" s="41">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="19.899999999999999" customHeight="1">
+      <c r="A106" s="41">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="19.899999999999999" customHeight="1">
+      <c r="A107" s="41">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="19.899999999999999" customHeight="1">
+      <c r="A108" s="41">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="19.899999999999999" customHeight="1">
+      <c r="A109" s="41">
         <v>108</v>
       </c>
-      <c r="D5" s="42" t="s">
-        <v>464</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="H5" s="41">
-        <v>59.877167999999998</v>
-      </c>
-      <c r="I5" s="41">
-        <v>30.440932</v>
-      </c>
-      <c r="J5" s="41" t="s">
-        <v>466</v>
-      </c>
-      <c r="K5" s="41" t="s">
-        <v>467</v>
+    </row>
+    <row r="110" spans="1:2" ht="19.899999999999999" customHeight="1">
+      <c r="A110" s="41">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="19.899999999999999" customHeight="1">
+      <c r="A111" s="41">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="19.899999999999999" customHeight="1">
+      <c r="A112" s="41">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" ht="19.899999999999999" customHeight="1">
+      <c r="A113" s="41">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" ht="19.899999999999999" customHeight="1">
+      <c r="A114" s="41">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" ht="19.899999999999999" customHeight="1">
+      <c r="A115" s="41">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" ht="19.899999999999999" customHeight="1">
+      <c r="A116" s="41">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" ht="19.899999999999999" customHeight="1">
+      <c r="A117" s="41">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" ht="19.899999999999999" customHeight="1">
+      <c r="A118" s="41">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" ht="19.899999999999999" customHeight="1">
+      <c r="A119" s="41">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" ht="19.899999999999999" customHeight="1">
+      <c r="A120" s="41">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" ht="19.899999999999999" customHeight="1">
+      <c r="A121" s="41">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" ht="19.899999999999999" customHeight="1">
+      <c r="A122" s="41">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" ht="19.899999999999999" customHeight="1">
+      <c r="A123" s="41">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" ht="19.899999999999999" customHeight="1">
+      <c r="A124" s="41">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" ht="19.899999999999999" customHeight="1">
+      <c r="A125" s="41">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" ht="19.899999999999999" customHeight="1">
+      <c r="A126" s="41">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" ht="19.899999999999999" customHeight="1">
+      <c r="A127" s="41">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" ht="19.899999999999999" customHeight="1">
+      <c r="A128" s="41">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" ht="19.899999999999999" customHeight="1">
+      <c r="A129" s="41">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" ht="19.899999999999999" customHeight="1">
+      <c r="A130" s="41">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" ht="19.899999999999999" customHeight="1">
+      <c r="A131" s="41">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" ht="19.899999999999999" customHeight="1">
+      <c r="A132" s="41">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" ht="19.899999999999999" customHeight="1">
+      <c r="A133" s="41">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" ht="19.899999999999999" customHeight="1">
+      <c r="A134" s="41">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" ht="19.899999999999999" customHeight="1">
+      <c r="A135" s="41">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" ht="19.899999999999999" customHeight="1">
+      <c r="A136" s="41">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" ht="19.899999999999999" customHeight="1">
+      <c r="A137" s="41">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" ht="19.899999999999999" customHeight="1">
+      <c r="A138" s="41">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" ht="19.899999999999999" customHeight="1">
+      <c r="A139" s="41">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" ht="19.899999999999999" customHeight="1">
+      <c r="A140" s="41">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" ht="19.899999999999999" customHeight="1">
+      <c r="A141" s="41">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" ht="19.899999999999999" customHeight="1">
+      <c r="A142" s="41">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" ht="19.899999999999999" customHeight="1">
+      <c r="A143" s="41">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" ht="19.899999999999999" customHeight="1">
+      <c r="A144" s="41">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" ht="19.899999999999999" customHeight="1">
+      <c r="A145" s="41">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" ht="19.899999999999999" customHeight="1">
+      <c r="A146" s="41">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" ht="19.899999999999999" customHeight="1">
+      <c r="A147" s="41">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" ht="19.899999999999999" customHeight="1">
+      <c r="A148" s="41">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" ht="19.899999999999999" customHeight="1">
+      <c r="A149" s="41">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" ht="19.899999999999999" customHeight="1">
+      <c r="A150" s="41">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" ht="19.899999999999999" customHeight="1">
+      <c r="A151" s="41">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations xWindow="1025" yWindow="473" count="13">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка" error="Здесь нужно ввести ширину в формате max_digits=9, decimal_places=6,                                 validators=[MinValueValidator(-90.0), MaxValueValidator(90.0)]_x000a_" sqref="H6:H1048576" xr:uid="{DF2EC6BC-1574-4015-BFEE-E167D0A72C00}">
+  <dataValidations xWindow="1004" yWindow="403" count="11">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка" error="Здесь нужно ввести ширину в формате max_digits=9, decimal_places=6,                                 validators=[MinValueValidator(-90.0), MaxValueValidator(90.0)]_x000a_" sqref="J5 J11 J16:J1048576">
       <formula1>-90</formula1>
       <formula2>90</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" errorTitle="Ошибка" error="Здесь нужно ввести ширину в формате max_digits=9, decimal_places=6,                                 validators=[MinValueValidator(-90.0), MaxValueValidator(90.0)]_x000a_" promptTitle="Введите широту " prompt="max_digits=9, decimal_places=6,_x000a_ validators=[MinValueValidator(-90.0), MaxValueValidator(90.0)]" sqref="H2" xr:uid="{5A8EE614-445F-4193-9B8B-E6F33AD22865}">
+    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" errorTitle="Ошибка" error="Здесь нужно ввести ширину в формате max_digits=9, decimal_places=6,                                 validators=[MinValueValidator(-90.0), MaxValueValidator(90.0)]_x000a_" promptTitle="Введите широту " prompt="max_digits=9, decimal_places=6,_x000a_ validators=[MinValueValidator(-90.0), MaxValueValidator(90.0)]" sqref="J2">
       <formula1>-90</formula1>
       <formula2>90</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" errorTitle="Ошибка при вводе данных" error="Формат долготы:_x000a_max_digits=9, decimal_places=6,_x000a_validators=[MinValueValidator(-180.0), MaxValueValidator(180.0)" sqref="I6:I1048576" xr:uid="{3F258B1C-759F-422E-A8F9-D8EE088E89F3}">
+    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" errorTitle="Ошибка при вводе данных" error="Формат долготы:_x000a_max_digits=9, decimal_places=6,_x000a_validators=[MinValueValidator(-180.0), MaxValueValidator(180.0)" sqref="K5:K11 K15:K1048576">
       <formula1>-180</formula1>
       <formula2>180</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка при вводе данных" error="Формат долготы:_x000a_max_digits=9, decimal_places=6,_x000a_validators=[MinValueValidator(-180.0), MaxValueValidator(180.0)" promptTitle="Введите долготу " prompt="Формат долготы:_x000a_max_digits=9, decimal_places=6,_x000a_validators=[MinValueValidator(-180.0), MaxValueValidator(180.0)" sqref="I1" xr:uid="{CD58ED41-222C-4DD0-9425-59EC232B3894}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка при вводе данных" error="Формат долготы:_x000a_max_digits=9, decimal_places=6,_x000a_validators=[MinValueValidator(-180.0), MaxValueValidator(180.0)" promptTitle="Введите долготу " prompt="Формат долготы:_x000a_max_digits=9, decimal_places=6,_x000a_validators=[MinValueValidator(-180.0), MaxValueValidator(180.0)" sqref="K1">
       <formula1>-180</formula1>
       <formula2>180</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка" error="Здесь нужно ввести ширину в формате max_digits=9, decimal_places=6,                                 validators=[MinValueValidator(-90.0), MaxValueValidator(90.0)]_x000a_" promptTitle="Введите широту" prompt="Формат широты:_x000a_max_digits=9, decimal_places=6,_x000a_ validators=[MinValueValidator(-90.0), MaxValueValidator(90.0)]" sqref="H1" xr:uid="{345DB9B8-46FF-4B6D-887F-70746BBB1DA3}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка" error="Здесь нужно ввести ширину в формате max_digits=9, decimal_places=6,                                 validators=[MinValueValidator(-90.0), MaxValueValidator(90.0)]_x000a_" promptTitle="Введите широту" prompt="Формат широты:_x000a_max_digits=9, decimal_places=6,_x000a_ validators=[MinValueValidator(-90.0), MaxValueValidator(90.0)]" sqref="J1">
       <formula1>-90</formula1>
       <formula2>90</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Служебное название памятника " prompt="формат ввода:_x000a_####_Название_памятника_x000a_#### - это индивидуальный порядковый номер " sqref="B1" xr:uid="{D64684F7-2C57-4F59-8B4E-3724CEF6E4E7}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Название памятника публичное" prompt="Ввести публичное название памятника, которое будет отображаться для пользователя" sqref="C1" xr:uid="{90E24A65-0D0D-4007-B155-93B1D0CA7BB1}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Тектовое описание" prompt="Большое полотно текста про памятник _x000a_" sqref="D1" xr:uid="{C757FA62-70C0-4637-87F8-F6B1177CC49B}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Ввести датировку" prompt="Разделитель - запятая и пробел. Вводить точно как в базе данных_x000a__x000a_1 пол. XVIII в., 2 пол. XVIII в. - пример" sqref="E1" xr:uid="{006FC0C3-DCC1-47F1-A4FC-F4D40E87E340}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Тип" prompt="Вводить точно как в базе данных, разделитель - запятая и пробел_x000a__x000a_Участок культурного слоя, Хозяйственные постройки - пример" sqref="F1" xr:uid="{0D6814F7-AE66-4723-946A-B1C051A848A1}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Ввести кастомную категорию" prompt="Разделитель - запятая и пробел_x000a_вводить как в базе" sqref="G1" xr:uid="{8628C9B6-1729-46A4-9C69-EB5C8041D13A}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Что сейчас на месте памятника" prompt="Инфа о том что сейчас на месте памятника_x000a_" sqref="J1" xr:uid="{5E1F9CAF-FF49-4D5D-B852-125028B53FB8}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Введите адрес" prompt="Адрес административный места раскопок_x000a_" sqref="K1" xr:uid="{A2608B44-9EFE-4763-85CF-01D271BC0B62}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Служебное название памятника " prompt="формат ввода:_x000a_####_Название_памятника_x000a_#### - это индивидуальный порядковый номер " sqref="B1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Название памятника публичное" prompt="Ввести публичное название памятника, которое будет отображаться для пользователя" sqref="C1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Тектовое описание" prompt="Большое полотно текста про памятник _x000a_" sqref="D1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Что сейчас на месте памятника" prompt="Инфа о том что сейчас на месте памятника_x000a_" sqref="E1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Введите адрес" prompt="Адрес административный места раскопок_x000a_" sqref="F1"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D7">
+      <formula1>"тест"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="1004" yWindow="403" count="5">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Choices!$A$2:$A$13</xm:f>
+          </x14:formula1>
+          <xm:sqref>G1:G1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Choices!$D$2:$D$22</xm:f>
+          </x14:formula1>
+          <xm:sqref>H1:H1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Choices!$G$2:$G$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>I1:I9 I13:I14 I31:I32 I43:I1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Choices!$J$2:$J$143</xm:f>
+          </x14:formula1>
+          <xm:sqref>L1:L1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Choices!$M$2:$M$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>M1:M1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD215A1A-122C-4D34-BA84-9A61AEDFC34C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист2"/>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:M143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -3683,160 +5639,946 @@
       <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="J1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.75">
       <c r="A2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="D2" s="41" t="s">
+        <v>459</v>
+      </c>
+      <c r="G2" t="s">
+        <v>475</v>
+      </c>
+      <c r="J2">
+        <v>1900</v>
+      </c>
+      <c r="M2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75">
       <c r="A3" t="s">
+        <v>455</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>458</v>
+      </c>
+      <c r="G3" t="s">
+        <v>476</v>
+      </c>
+      <c r="J3">
+        <v>1901</v>
+      </c>
+      <c r="M3" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>456</v>
+      </c>
+      <c r="D4" t="s">
+        <v>460</v>
+      </c>
+      <c r="G4" t="s">
+        <v>477</v>
+      </c>
+      <c r="J4">
+        <v>1902</v>
+      </c>
+      <c r="M4" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
+        <v>457</v>
+      </c>
+      <c r="D5" t="s">
+        <v>479</v>
+      </c>
+      <c r="G5" t="s">
+        <v>486</v>
+      </c>
+      <c r="J5">
+        <v>1903</v>
+      </c>
+      <c r="M5" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15.75">
+      <c r="A6" t="s">
+        <v>454</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>461</v>
+      </c>
+      <c r="G6" t="s">
+        <v>485</v>
+      </c>
+      <c r="J6">
+        <v>1904</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
+      <c r="D7" t="s">
+        <v>112</v>
+      </c>
+      <c r="J7">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
+      <c r="D8" t="s">
+        <v>462</v>
+      </c>
+      <c r="J8">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
+      <c r="D9" t="s">
+        <v>463</v>
+      </c>
+      <c r="J9">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
+      <c r="D10" t="s">
+        <v>464</v>
+      </c>
+      <c r="J10">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
+      <c r="D11" t="s">
+        <v>465</v>
+      </c>
+      <c r="J11">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
+      <c r="D12" t="s">
+        <v>466</v>
+      </c>
+      <c r="J12">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>31</v>
+      <c r="D13" t="s">
+        <v>467</v>
+      </c>
+      <c r="J13">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="D14" t="s">
+        <v>482</v>
+      </c>
+      <c r="J14">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="D15" t="s">
+        <v>468</v>
+      </c>
+      <c r="J15">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="D16" t="s">
+        <v>469</v>
+      </c>
+      <c r="J16">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="17" spans="4:10">
+      <c r="D17" t="s">
+        <v>470</v>
+      </c>
+      <c r="J17">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="18" spans="4:10">
+      <c r="D18" t="s">
+        <v>471</v>
+      </c>
+      <c r="J18">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="19" spans="4:10">
+      <c r="D19" t="s">
+        <v>472</v>
+      </c>
+      <c r="J19">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="20" spans="4:10">
+      <c r="D20" t="s">
+        <v>473</v>
+      </c>
+      <c r="J20">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="21" spans="4:10">
+      <c r="D21" t="s">
+        <v>474</v>
+      </c>
+      <c r="J21">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="22" spans="4:10">
+      <c r="D22" t="s">
+        <v>480</v>
+      </c>
+      <c r="J22">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="23" spans="4:10">
+      <c r="J23">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="24" spans="4:10">
+      <c r="J24">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="25" spans="4:10">
+      <c r="J25">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="26" spans="4:10">
+      <c r="J26">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="27" spans="4:10">
+      <c r="J27">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="28" spans="4:10">
+      <c r="J28">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="29" spans="4:10">
+      <c r="J29">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="30" spans="4:10">
+      <c r="J30">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="31" spans="4:10">
+      <c r="J31">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="32" spans="4:10">
+      <c r="J32">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="33" spans="10:10">
+      <c r="J33">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="34" spans="10:10">
+      <c r="J34">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="35" spans="10:10">
+      <c r="J35">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="36" spans="10:10">
+      <c r="J36">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="37" spans="10:10">
+      <c r="J37">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="38" spans="10:10">
+      <c r="J38">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="39" spans="10:10">
+      <c r="J39">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="40" spans="10:10">
+      <c r="J40">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="41" spans="10:10">
+      <c r="J41">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="42" spans="10:10">
+      <c r="J42">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="43" spans="10:10">
+      <c r="J43">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="44" spans="10:10">
+      <c r="J44">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="45" spans="10:10">
+      <c r="J45">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="46" spans="10:10">
+      <c r="J46">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="47" spans="10:10">
+      <c r="J47">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="48" spans="10:10">
+      <c r="J48">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="49" spans="10:10">
+      <c r="J49">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="50" spans="10:10">
+      <c r="J50">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="51" spans="10:10">
+      <c r="J51">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="52" spans="10:10">
+      <c r="J52">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="53" spans="10:10">
+      <c r="J53">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="54" spans="10:10">
+      <c r="J54">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="55" spans="10:10">
+      <c r="J55">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="56" spans="10:10">
+      <c r="J56">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="57" spans="10:10">
+      <c r="J57">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="58" spans="10:10">
+      <c r="J58">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="59" spans="10:10">
+      <c r="J59">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="60" spans="10:10">
+      <c r="J60">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="61" spans="10:10">
+      <c r="J61">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="62" spans="10:10">
+      <c r="J62">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="63" spans="10:10">
+      <c r="J63">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="64" spans="10:10">
+      <c r="J64">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="65" spans="10:10">
+      <c r="J65">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="66" spans="10:10">
+      <c r="J66">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="67" spans="10:10">
+      <c r="J67">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="68" spans="10:10">
+      <c r="J68">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="69" spans="10:10">
+      <c r="J69">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="70" spans="10:10">
+      <c r="J70">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="71" spans="10:10">
+      <c r="J71">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="72" spans="10:10">
+      <c r="J72">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="73" spans="10:10">
+      <c r="J73">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="74" spans="10:10">
+      <c r="J74">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="75" spans="10:10">
+      <c r="J75">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="76" spans="10:10">
+      <c r="J76">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="77" spans="10:10">
+      <c r="J77">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="78" spans="10:10">
+      <c r="J78">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="79" spans="10:10">
+      <c r="J79">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="80" spans="10:10">
+      <c r="J80">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="81" spans="10:10">
+      <c r="J81">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="82" spans="10:10">
+      <c r="J82">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="83" spans="10:10">
+      <c r="J83">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="84" spans="10:10">
+      <c r="J84">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="85" spans="10:10">
+      <c r="J85">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="86" spans="10:10">
+      <c r="J86">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="87" spans="10:10">
+      <c r="J87">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="88" spans="10:10">
+      <c r="J88">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="89" spans="10:10">
+      <c r="J89">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="90" spans="10:10">
+      <c r="J90">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="91" spans="10:10">
+      <c r="J91">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="92" spans="10:10">
+      <c r="J92">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="93" spans="10:10">
+      <c r="J93">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="94" spans="10:10">
+      <c r="J94">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="95" spans="10:10">
+      <c r="J95">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="96" spans="10:10">
+      <c r="J96">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="97" spans="10:10">
+      <c r="J97">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="98" spans="10:10">
+      <c r="J98">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="99" spans="10:10">
+      <c r="J99">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="100" spans="10:10">
+      <c r="J100">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="101" spans="10:10">
+      <c r="J101">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="102" spans="10:10">
+      <c r="J102">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="103" spans="10:10">
+      <c r="J103">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="104" spans="10:10">
+      <c r="J104">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="105" spans="10:10">
+      <c r="J105">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="106" spans="10:10">
+      <c r="J106">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="107" spans="10:10">
+      <c r="J107">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="108" spans="10:10">
+      <c r="J108">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="109" spans="10:10">
+      <c r="J109">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="110" spans="10:10">
+      <c r="J110">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="111" spans="10:10">
+      <c r="J111">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="112" spans="10:10">
+      <c r="J112">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="113" spans="10:10">
+      <c r="J113">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="114" spans="10:10">
+      <c r="J114">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="115" spans="10:10">
+      <c r="J115">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="116" spans="10:10">
+      <c r="J116">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="117" spans="10:10">
+      <c r="J117">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="118" spans="10:10">
+      <c r="J118">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="119" spans="10:10">
+      <c r="J119">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="120" spans="10:10">
+      <c r="J120">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="121" spans="10:10">
+      <c r="J121">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="122" spans="10:10">
+      <c r="J122">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="123" spans="10:10">
+      <c r="J123">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="124" spans="10:10">
+      <c r="J124">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="125" spans="10:10">
+      <c r="J125">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="126" spans="10:10">
+      <c r="J126">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="127" spans="10:10">
+      <c r="J127">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="128" spans="10:10">
+      <c r="J128">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="129" spans="10:10">
+      <c r="J129">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="130" spans="10:10">
+      <c r="J130">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="131" spans="10:10">
+      <c r="J131">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="132" spans="10:10">
+      <c r="J132">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="133" spans="10:10">
+      <c r="J133">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="134" spans="10:10">
+      <c r="J134">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="135" spans="10:10">
+      <c r="J135">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="136" spans="10:10">
+      <c r="J136">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="137" spans="10:10">
+      <c r="J137">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="138" spans="10:10">
+      <c r="J138">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="139" spans="10:10">
+      <c r="J139">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="140" spans="10:10">
+      <c r="J140">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="141" spans="10:10">
+      <c r="J141">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="142" spans="10:10">
+      <c r="J142">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="143" spans="10:10">
+      <c r="J143">
+        <v>2041</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E8D0DF6-1433-45F7-B683-10E2FF25BF06}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:P100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16" ht="72">
+    <row r="1" spans="1:16" ht="67.5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="O1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:16" ht="409.5">
+      <c r="A2" s="6" t="s">
         <v>50</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="409.6">
-      <c r="A2" s="6" t="s">
-        <v>56</v>
       </c>
       <c r="B2" s="7">
         <v>1952</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="I2" s="9"/>
       <c r="J2" s="9" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
@@ -3845,32 +6587,32 @@
       <c r="O2" s="9"/>
       <c r="P2" s="9"/>
     </row>
-    <row r="3" spans="1:16" ht="409.6">
+    <row r="3" spans="1:16" ht="409.5">
       <c r="A3" s="6" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
@@ -3879,32 +6621,32 @@
       <c r="O3" s="9"/>
       <c r="P3" s="9"/>
     </row>
-    <row r="4" spans="1:16" ht="409.6">
+    <row r="4" spans="1:16" ht="409.5">
       <c r="A4" s="6" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
@@ -3913,32 +6655,32 @@
       <c r="O4" s="9"/>
       <c r="P4" s="9"/>
     </row>
-    <row r="5" spans="1:16" ht="409.6">
+    <row r="5" spans="1:16" ht="409.5">
       <c r="A5" s="6" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
@@ -3947,32 +6689,32 @@
       <c r="O5" s="9"/>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:16" ht="409.6">
+    <row r="6" spans="1:16" ht="409.5">
       <c r="A6" s="6" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
@@ -3981,32 +6723,32 @@
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:16" ht="409.6">
+    <row r="7" spans="1:16" ht="409.5">
       <c r="A7" s="6" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
@@ -4015,34 +6757,34 @@
       <c r="O7" s="9"/>
       <c r="P7" s="9"/>
     </row>
-    <row r="8" spans="1:16" ht="409.6">
+    <row r="8" spans="1:16" ht="409.5">
       <c r="A8" s="6" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B8" s="7">
         <v>1976</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
@@ -4051,28 +6793,28 @@
       <c r="O8" s="9"/>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:16" ht="409.6">
+    <row r="9" spans="1:16" ht="409.5">
       <c r="A9" s="6" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B9" s="7">
         <v>2014</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="12" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
@@ -4081,32 +6823,32 @@
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="1:16" ht="409.6">
+    <row r="10" spans="1:16" ht="409.5">
       <c r="A10" s="6" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B10" s="7">
         <v>2016</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
@@ -4115,32 +6857,32 @@
       <c r="O10" s="9"/>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:16" ht="375">
+    <row r="11" spans="1:16" ht="351.75">
       <c r="A11" s="6" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="H11" s="15"/>
       <c r="I11" s="9"/>
       <c r="J11" s="16" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
@@ -4149,34 +6891,34 @@
       <c r="O11" s="15"/>
       <c r="P11" s="15"/>
     </row>
-    <row r="12" spans="1:16" ht="409.6">
+    <row r="12" spans="1:16" ht="409.5">
       <c r="A12" s="6" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
@@ -4185,34 +6927,34 @@
       <c r="O12" s="9"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:16" ht="409.6">
+    <row r="13" spans="1:16" ht="409.5">
       <c r="A13" s="6" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B13" s="7">
         <v>1967</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
@@ -4221,34 +6963,34 @@
       <c r="O13" s="9"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:16" ht="409.6">
+    <row r="14" spans="1:16" ht="409.5">
       <c r="A14" s="6" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="9" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
@@ -4257,34 +6999,34 @@
       <c r="O14" s="9"/>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="1:16" ht="409.6">
+    <row r="15" spans="1:16" ht="409.5">
       <c r="A15" s="6" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="9" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
@@ -4293,32 +7035,32 @@
       <c r="O15" s="9"/>
       <c r="P15" s="9"/>
     </row>
-    <row r="16" spans="1:16" ht="409.6">
+    <row r="16" spans="1:16" ht="409.5">
       <c r="A16" s="6" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
@@ -4327,32 +7069,32 @@
       <c r="O16" s="9"/>
       <c r="P16" s="9"/>
     </row>
-    <row r="17" spans="1:16" ht="409.6">
+    <row r="17" spans="1:16" ht="409.5">
       <c r="A17" s="6" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
       <c r="J17" s="9" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
@@ -4361,32 +7103,32 @@
       <c r="O17" s="9"/>
       <c r="P17" s="9"/>
     </row>
-    <row r="18" spans="1:16" ht="409.6">
+    <row r="18" spans="1:16" ht="409.5">
       <c r="A18" s="6" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
       <c r="J18" s="9" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
@@ -4395,34 +7137,34 @@
       <c r="O18" s="9"/>
       <c r="P18" s="9"/>
     </row>
-    <row r="19" spans="1:16" ht="409.6">
+    <row r="19" spans="1:16" ht="409.5">
       <c r="A19" s="6" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="9" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
@@ -4431,29 +7173,29 @@
       <c r="O19" s="9"/>
       <c r="P19" s="9"/>
     </row>
-    <row r="20" spans="1:16" ht="409.6">
+    <row r="20" spans="1:16" ht="409.5">
       <c r="A20" s="6" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B20" s="7">
         <v>2001</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="8" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="G20" s="21" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="H20" s="9"/>
       <c r="J20" s="9" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
@@ -4462,32 +7204,32 @@
       <c r="O20" s="9"/>
       <c r="P20" s="9"/>
     </row>
-    <row r="21" spans="1:16" ht="409.6">
+    <row r="21" spans="1:16" ht="409.5">
       <c r="A21" s="6" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G21" s="21" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
       <c r="J21" s="9" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
@@ -4496,32 +7238,32 @@
       <c r="O21" s="9"/>
       <c r="P21" s="9"/>
     </row>
-    <row r="22" spans="1:16" ht="409.6">
+    <row r="22" spans="1:16" ht="409.5">
       <c r="A22" s="6" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B22" s="7">
         <v>2011</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
       <c r="J22" s="9" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
@@ -4530,34 +7272,34 @@
       <c r="O22" s="9"/>
       <c r="P22" s="9"/>
     </row>
-    <row r="23" spans="1:16" ht="409.6">
+    <row r="23" spans="1:16" ht="409.5">
       <c r="A23" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="H23" s="9" t="s">
         <v>189</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>195</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
@@ -4569,26 +7311,26 @@
     <row r="24" spans="1:16" ht="409.6">
       <c r="A24" s="13"/>
       <c r="B24" s="13" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="H24" s="15"/>
       <c r="I24" s="9" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="J24" s="15"/>
       <c r="K24" s="15"/>
@@ -4602,15 +7344,15 @@
       <c r="A25" s="13"/>
       <c r="B25" s="13"/>
       <c r="C25" s="24" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E25" s="14"/>
       <c r="F25" s="7"/>
       <c r="G25" s="9" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="H25" s="15"/>
       <c r="I25" s="9"/>
@@ -4622,29 +7364,29 @@
       <c r="O25" s="15"/>
       <c r="P25" s="15"/>
     </row>
-    <row r="26" spans="1:16" ht="409.6">
+    <row r="26" spans="1:16" ht="409.5">
       <c r="A26" s="6"/>
       <c r="B26" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D26" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="G26" s="10" t="s">
         <v>204</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>210</v>
       </c>
       <c r="H26" s="9"/>
       <c r="I26" s="9" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
@@ -4657,22 +7399,22 @@
     <row r="27" spans="1:16" ht="409.6">
       <c r="A27" s="13"/>
       <c r="B27" s="13" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="H27" s="18"/>
       <c r="I27" s="15"/>
@@ -4690,19 +7432,19 @@
         <v>2004</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="H28" s="15"/>
       <c r="I28" s="9"/>
@@ -4717,20 +7459,20 @@
     <row r="29" spans="1:16" ht="409.6">
       <c r="A29" s="13"/>
       <c r="B29" s="13" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="9" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="H29" s="15"/>
       <c r="I29" s="9"/>
@@ -4742,25 +7484,25 @@
       <c r="O29" s="15"/>
       <c r="P29" s="15"/>
     </row>
-    <row r="30" spans="1:16" ht="409.6">
+    <row r="30" spans="1:16" ht="409.5">
       <c r="A30" s="6"/>
       <c r="B30" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
@@ -4772,25 +7514,25 @@
       <c r="O30" s="9"/>
       <c r="P30" s="9"/>
     </row>
-    <row r="31" spans="1:16" ht="409.6">
+    <row r="31" spans="1:16" ht="409.5">
       <c r="A31" s="6"/>
       <c r="B31" s="7">
         <v>2011</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G31" s="21" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
@@ -4802,27 +7544,27 @@
       <c r="O31" s="9"/>
       <c r="P31" s="9"/>
     </row>
-    <row r="32" spans="1:16" ht="409.6">
+    <row r="32" spans="1:16" ht="409.5">
       <c r="A32" s="6" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B32" s="7">
         <v>2011</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G32" s="25" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
@@ -4834,25 +7576,25 @@
       <c r="O32" s="9"/>
       <c r="P32" s="9"/>
     </row>
-    <row r="33" spans="1:16" ht="409.6">
+    <row r="33" spans="1:16" ht="409.5">
       <c r="A33" s="6"/>
       <c r="B33" s="7">
         <v>2012</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E33" s="26" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="G33" s="25" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
@@ -4864,29 +7606,29 @@
       <c r="O33" s="9"/>
       <c r="P33" s="9"/>
     </row>
-    <row r="34" spans="1:16" ht="409.6">
+    <row r="34" spans="1:16" ht="409.5">
       <c r="A34" s="6"/>
       <c r="B34" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H34" s="9"/>
       <c r="I34" s="9" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
@@ -4896,25 +7638,25 @@
       <c r="O34" s="9"/>
       <c r="P34" s="9"/>
     </row>
-    <row r="35" spans="1:16" ht="409.6">
+    <row r="35" spans="1:16" ht="409.5">
       <c r="A35" s="6"/>
       <c r="B35" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
@@ -4926,25 +7668,25 @@
       <c r="O35" s="9"/>
       <c r="P35" s="9"/>
     </row>
-    <row r="36" spans="1:16" ht="409.6">
+    <row r="36" spans="1:16" ht="409.5">
       <c r="A36" s="6"/>
       <c r="B36" s="7">
         <v>2013</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
@@ -4956,25 +7698,25 @@
       <c r="O36" s="9"/>
       <c r="P36" s="9"/>
     </row>
-    <row r="37" spans="1:16" ht="409.6">
+    <row r="37" spans="1:16" ht="409.5">
       <c r="A37" s="6"/>
       <c r="B37" s="7">
         <v>2013</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H37" s="9"/>
       <c r="I37" s="9"/>
@@ -4986,25 +7728,25 @@
       <c r="O37" s="9"/>
       <c r="P37" s="9"/>
     </row>
-    <row r="38" spans="1:16" ht="409.6">
+    <row r="38" spans="1:16" ht="409.5">
       <c r="A38" s="6"/>
       <c r="B38" s="7">
         <v>2013</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="G38" s="25" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
@@ -5022,19 +7764,19 @@
         <v>2013</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E39" s="26" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="G39" s="27" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
@@ -5046,25 +7788,25 @@
       <c r="O39" s="9"/>
       <c r="P39" s="9"/>
     </row>
-    <row r="40" spans="1:16" ht="409.6">
+    <row r="40" spans="1:16" ht="409.5">
       <c r="A40" s="6"/>
       <c r="B40" s="7">
         <v>2014</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G40" s="25" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
@@ -5076,29 +7818,29 @@
       <c r="O40" s="9"/>
       <c r="P40" s="9"/>
     </row>
-    <row r="41" spans="1:16" ht="409.6">
+    <row r="41" spans="1:16" ht="409.5">
       <c r="A41" s="6"/>
       <c r="B41" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="H41" s="9"/>
       <c r="I41" s="9" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
@@ -5108,31 +7850,31 @@
       <c r="O41" s="9"/>
       <c r="P41" s="9"/>
     </row>
-    <row r="42" spans="1:16" ht="409.6">
+    <row r="42" spans="1:16" ht="409.5">
       <c r="A42" s="6" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B42" s="28" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C42" s="29" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E42" s="23" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="G42" s="30" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="H42" s="30"/>
       <c r="I42" s="30" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="J42" s="30"/>
       <c r="K42" s="30"/>
@@ -5142,25 +7884,25 @@
       <c r="O42" s="30"/>
       <c r="P42" s="9"/>
     </row>
-    <row r="43" spans="1:16" ht="409.6">
+    <row r="43" spans="1:16" ht="409.5">
       <c r="A43" s="6"/>
       <c r="B43" s="28">
         <v>2019</v>
       </c>
       <c r="C43" s="29" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E43" s="31" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="F43" s="29" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="G43" s="30" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="H43" s="30"/>
       <c r="I43" s="30"/>
@@ -5172,25 +7914,25 @@
       <c r="O43" s="30"/>
       <c r="P43" s="9"/>
     </row>
-    <row r="44" spans="1:16" ht="409.6">
+    <row r="44" spans="1:16" ht="409.5">
       <c r="A44" s="6"/>
       <c r="B44" s="7">
         <v>2020</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E44" s="26" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="H44" s="9"/>
       <c r="I44" s="9"/>
@@ -5202,25 +7944,25 @@
       <c r="O44" s="9"/>
       <c r="P44" s="9"/>
     </row>
-    <row r="45" spans="1:16" ht="409.6">
+    <row r="45" spans="1:16" ht="409.5">
       <c r="A45" s="6"/>
       <c r="B45" s="7">
         <v>2023</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E45" s="32" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="H45" s="9"/>
       <c r="I45" s="9"/>
@@ -5232,29 +7974,29 @@
       <c r="O45" s="9"/>
       <c r="P45" s="9"/>
     </row>
-    <row r="46" spans="1:16" ht="409.6">
+    <row r="46" spans="1:16" ht="409.5">
       <c r="A46" s="6"/>
       <c r="B46" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="F46" s="8"/>
       <c r="G46" s="10" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
@@ -5264,34 +8006,34 @@
       <c r="O46" s="9"/>
       <c r="P46" s="9"/>
     </row>
-    <row r="47" spans="1:16" ht="273.60000000000002">
+    <row r="47" spans="1:16" ht="270">
       <c r="A47" s="6"/>
       <c r="B47" s="7">
         <v>1973</v>
       </c>
       <c r="C47" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="H47" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="I47" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="J47" s="9" t="s">
         <v>283</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="G47" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="H47" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="I47" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="J47" s="9" t="s">
-        <v>289</v>
       </c>
       <c r="K47" s="9"/>
       <c r="L47" s="33"/>
@@ -5300,30 +8042,30 @@
       <c r="O47" s="9"/>
       <c r="P47" s="9"/>
     </row>
-    <row r="48" spans="1:16" ht="409.6">
+    <row r="48" spans="1:16" ht="409.5">
       <c r="A48" s="6"/>
       <c r="B48" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
       <c r="J48" s="9" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="K48" s="9"/>
       <c r="L48" s="9"/>
@@ -5332,28 +8074,28 @@
       <c r="O48" s="9"/>
       <c r="P48" s="9"/>
     </row>
-    <row r="49" spans="1:16" ht="273.60000000000002">
+    <row r="49" spans="1:16" ht="256.5">
       <c r="A49" s="6"/>
       <c r="B49" s="7">
         <v>1994</v>
       </c>
       <c r="C49" s="34" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -5364,25 +8106,25 @@
       <c r="O49" s="9"/>
       <c r="P49" s="9"/>
     </row>
-    <row r="50" spans="1:16" ht="409.6">
+    <row r="50" spans="1:16" ht="409.5">
       <c r="A50" s="6"/>
       <c r="B50" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
@@ -5394,28 +8136,28 @@
       <c r="O50" s="9"/>
       <c r="P50" s="9"/>
     </row>
-    <row r="51" spans="1:16" ht="409.6">
+    <row r="51" spans="1:16" ht="409.5">
       <c r="A51" s="6"/>
       <c r="B51" s="7">
         <v>1997</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="H51" s="10" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -5426,28 +8168,28 @@
       <c r="O51" s="9"/>
       <c r="P51" s="9"/>
     </row>
-    <row r="52" spans="1:16" ht="409.6">
+    <row r="52" spans="1:16" ht="409.5">
       <c r="A52" s="6"/>
       <c r="B52" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="H52" s="10" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -5458,23 +8200,23 @@
       <c r="O52" s="9"/>
       <c r="P52" s="9"/>
     </row>
-    <row r="53" spans="1:16" ht="409.6">
+    <row r="53" spans="1:16" ht="409.5">
       <c r="A53" s="6"/>
       <c r="B53" s="7">
         <v>2001</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E53" s="8"/>
       <c r="F53" s="8" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="H53" s="10"/>
       <c r="I53" s="9"/>
@@ -5486,28 +8228,28 @@
       <c r="O53" s="9"/>
       <c r="P53" s="9"/>
     </row>
-    <row r="54" spans="1:16" ht="409.6">
+    <row r="54" spans="1:16" ht="405">
       <c r="A54" s="6"/>
       <c r="B54" s="7">
         <v>2002</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E54" s="35" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F54" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="G54" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="G54" s="10" t="s">
-        <v>316</v>
-      </c>
       <c r="H54" s="10" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -5518,28 +8260,28 @@
       <c r="O54" s="9"/>
       <c r="P54" s="9"/>
     </row>
-    <row r="55" spans="1:16" ht="360.6">
+    <row r="55" spans="1:16" ht="324.75">
       <c r="A55" s="13"/>
       <c r="B55" s="13">
         <v>2000</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="F55" s="13" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="H55" s="9" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="I55" s="15"/>
       <c r="J55" s="15"/>
@@ -5556,19 +8298,19 @@
         <v>2001</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="H56" s="18"/>
       <c r="I56" s="9"/>
@@ -5583,22 +8325,22 @@
     <row r="57" spans="1:16" ht="409.6">
       <c r="A57" s="13"/>
       <c r="B57" s="13" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="H57" s="18"/>
       <c r="I57" s="9"/>
@@ -5616,19 +8358,19 @@
         <v>2001</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="H58" s="18"/>
       <c r="I58" s="9"/>
@@ -5646,19 +8388,19 @@
         <v>2001</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="H59" s="18"/>
       <c r="I59" s="9"/>
@@ -5676,19 +8418,19 @@
         <v>2001</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="H60" s="18"/>
       <c r="I60" s="9"/>
@@ -5706,19 +8448,19 @@
         <v>2001</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="H61" s="18"/>
       <c r="I61" s="16"/>
@@ -5730,22 +8472,22 @@
       <c r="O61" s="15"/>
       <c r="P61" s="15"/>
     </row>
-    <row r="62" spans="1:16" ht="129.6">
+    <row r="62" spans="1:16" ht="121.5">
       <c r="A62" s="13"/>
       <c r="B62" s="13">
         <v>2002</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G62" s="9"/>
       <c r="H62" s="18"/>
@@ -5758,22 +8500,22 @@
       <c r="O62" s="15"/>
       <c r="P62" s="15"/>
     </row>
-    <row r="63" spans="1:16" ht="86.4">
+    <row r="63" spans="1:16" ht="81">
       <c r="A63" s="13"/>
       <c r="B63" s="13">
         <v>2002</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G63" s="9"/>
       <c r="H63" s="18"/>
@@ -5786,25 +8528,25 @@
       <c r="O63" s="15"/>
       <c r="P63" s="15"/>
     </row>
-    <row r="64" spans="1:16" ht="273.60000000000002">
+    <row r="64" spans="1:16" ht="256.5">
       <c r="A64" s="6"/>
       <c r="B64" s="7">
         <v>2003</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="H64" s="9"/>
       <c r="I64" s="9"/>
@@ -5816,22 +8558,22 @@
       <c r="O64" s="9"/>
       <c r="P64" s="9"/>
     </row>
-    <row r="65" spans="1:16" ht="86.4">
+    <row r="65" spans="1:16" ht="81">
       <c r="A65" s="6"/>
       <c r="B65" s="7">
         <v>2004</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G65" s="10"/>
       <c r="H65" s="9"/>
@@ -5844,29 +8586,29 @@
       <c r="O65" s="9"/>
       <c r="P65" s="9"/>
     </row>
-    <row r="66" spans="1:16" ht="409.6">
+    <row r="66" spans="1:16" ht="409.5">
       <c r="A66" s="6"/>
       <c r="B66" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="H66" s="9"/>
       <c r="I66" s="9" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
@@ -5876,25 +8618,25 @@
       <c r="O66" s="9"/>
       <c r="P66" s="9"/>
     </row>
-    <row r="67" spans="1:16" ht="409.6">
+    <row r="67" spans="1:16" ht="409.5">
       <c r="A67" s="36"/>
       <c r="B67" s="37">
         <v>2009</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="H67" s="38"/>
       <c r="I67" s="38"/>
@@ -5906,25 +8648,25 @@
       <c r="O67" s="38"/>
       <c r="P67" s="38"/>
     </row>
-    <row r="68" spans="1:16" ht="409.6">
+    <row r="68" spans="1:16" ht="409.5">
       <c r="A68" s="6"/>
       <c r="B68" s="7">
         <v>2009</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G68" s="9" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="H68" s="9"/>
       <c r="I68" s="9"/>
@@ -5936,25 +8678,25 @@
       <c r="O68" s="9"/>
       <c r="P68" s="9"/>
     </row>
-    <row r="69" spans="1:16" ht="409.6">
+    <row r="69" spans="1:16" ht="409.5">
       <c r="A69" s="6"/>
       <c r="B69" s="7">
         <v>2009</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="H69" s="9"/>
       <c r="I69" s="9"/>
@@ -5966,25 +8708,25 @@
       <c r="O69" s="9"/>
       <c r="P69" s="9"/>
     </row>
-    <row r="70" spans="1:16" ht="409.6">
+    <row r="70" spans="1:16" ht="409.5">
       <c r="A70" s="6"/>
       <c r="B70" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="H70" s="9"/>
       <c r="I70" s="9"/>
@@ -5996,25 +8738,25 @@
       <c r="O70" s="9"/>
       <c r="P70" s="9"/>
     </row>
-    <row r="71" spans="1:16" ht="409.6">
+    <row r="71" spans="1:16" ht="409.5">
       <c r="A71" s="6"/>
       <c r="B71" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="H71" s="9"/>
       <c r="I71" s="9"/>
@@ -6026,25 +8768,25 @@
       <c r="O71" s="9"/>
       <c r="P71" s="9"/>
     </row>
-    <row r="72" spans="1:16" ht="409.6">
+    <row r="72" spans="1:16" ht="391.5">
       <c r="A72" s="6"/>
       <c r="B72" s="7">
         <v>2010</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="H72" s="9"/>
       <c r="I72" s="9"/>
@@ -6056,25 +8798,25 @@
       <c r="O72" s="9"/>
       <c r="P72" s="9"/>
     </row>
-    <row r="73" spans="1:16" ht="409.6">
+    <row r="73" spans="1:16" ht="409.5">
       <c r="A73" s="6"/>
       <c r="B73" s="7">
         <v>2011</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="H73" s="9"/>
       <c r="I73" s="9"/>
@@ -6086,25 +8828,25 @@
       <c r="O73" s="9"/>
       <c r="P73" s="9"/>
     </row>
-    <row r="74" spans="1:16" ht="388.8">
+    <row r="74" spans="1:16" ht="364.5">
       <c r="A74" s="6"/>
       <c r="B74" s="7">
         <v>2011</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G74" s="9" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="H74" s="9"/>
       <c r="I74" s="9"/>
@@ -6116,29 +8858,29 @@
       <c r="O74" s="9"/>
       <c r="P74" s="9"/>
     </row>
-    <row r="75" spans="1:16" ht="409.6">
+    <row r="75" spans="1:16" ht="409.5">
       <c r="A75" s="6"/>
       <c r="B75" s="7" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="H75" s="9"/>
       <c r="I75" s="9" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
@@ -6148,25 +8890,25 @@
       <c r="O75" s="9"/>
       <c r="P75" s="9"/>
     </row>
-    <row r="76" spans="1:16" ht="409.6">
+    <row r="76" spans="1:16" ht="409.5">
       <c r="A76" s="6"/>
       <c r="B76" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="H76" s="9"/>
       <c r="I76" s="9"/>
@@ -6178,25 +8920,25 @@
       <c r="O76" s="9"/>
       <c r="P76" s="9"/>
     </row>
-    <row r="77" spans="1:16" ht="409.6">
+    <row r="77" spans="1:16" ht="409.5">
       <c r="A77" s="6"/>
       <c r="B77" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E77" s="26" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="G77" s="25" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H77" s="9"/>
       <c r="I77" s="9"/>
@@ -6208,25 +8950,25 @@
       <c r="O77" s="9"/>
       <c r="P77" s="9"/>
     </row>
-    <row r="78" spans="1:16" ht="388.8">
+    <row r="78" spans="1:16" ht="364.5">
       <c r="A78" s="6"/>
       <c r="B78" s="7">
         <v>2013</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G78" s="39" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="H78" s="9"/>
       <c r="I78" s="9"/>
@@ -6238,25 +8980,25 @@
       <c r="O78" s="9"/>
       <c r="P78" s="9"/>
     </row>
-    <row r="79" spans="1:16" ht="409.6">
+    <row r="79" spans="1:16" ht="409.5">
       <c r="A79" s="6"/>
       <c r="B79" s="7">
         <v>2013</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="H79" s="9"/>
       <c r="I79" s="9"/>
@@ -6274,19 +9016,19 @@
         <v>2013</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E80" s="26" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="G80" s="27" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H80" s="9"/>
       <c r="I80" s="9"/>
@@ -6304,19 +9046,19 @@
         <v>2013</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E81" s="26" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="G81" s="27" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H81" s="9"/>
       <c r="I81" s="9"/>
@@ -6328,25 +9070,25 @@
       <c r="O81" s="9"/>
       <c r="P81" s="9"/>
     </row>
-    <row r="82" spans="1:16" ht="409.6">
+    <row r="82" spans="1:16" ht="409.5">
       <c r="A82" s="6"/>
       <c r="B82" s="7">
         <v>2014</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E82" s="26" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="H82" s="9"/>
       <c r="I82" s="9"/>
@@ -6358,25 +9100,25 @@
       <c r="O82" s="9"/>
       <c r="P82" s="9"/>
     </row>
-    <row r="83" spans="1:16" ht="409.6">
+    <row r="83" spans="1:16" ht="405">
       <c r="A83" s="6"/>
       <c r="B83" s="7">
         <v>2014</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="H83" s="9"/>
       <c r="I83" s="9"/>
@@ -6388,27 +9130,27 @@
       <c r="O83" s="9"/>
       <c r="P83" s="9"/>
     </row>
-    <row r="84" spans="1:16" ht="115.2">
+    <row r="84" spans="1:16" ht="108">
       <c r="A84" s="6"/>
       <c r="B84" s="7">
         <v>2021</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="G84" s="9"/>
       <c r="H84" s="9"/>
       <c r="I84" s="9" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
@@ -6418,29 +9160,29 @@
       <c r="O84" s="9"/>
       <c r="P84" s="9"/>
     </row>
-    <row r="85" spans="1:16" ht="409.6">
+    <row r="85" spans="1:16" ht="405">
       <c r="A85" s="6"/>
       <c r="B85" s="7">
         <v>2022</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="H85" s="9"/>
       <c r="I85" s="9" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
@@ -6450,28 +9192,28 @@
       <c r="O85" s="9"/>
       <c r="P85" s="9"/>
     </row>
-    <row r="86" spans="1:16" ht="409.6">
+    <row r="86" spans="1:16" ht="409.5">
       <c r="A86" s="6"/>
       <c r="B86" s="7" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G86" s="10" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="H86" s="10" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -6482,25 +9224,25 @@
       <c r="O86" s="9"/>
       <c r="P86" s="9"/>
     </row>
-    <row r="87" spans="1:16" ht="172.8">
+    <row r="87" spans="1:16" ht="162">
       <c r="A87" s="6"/>
       <c r="B87" s="7" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="G87" s="9" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="H87" s="9"/>
       <c r="I87" s="9"/>
@@ -6512,25 +9254,25 @@
       <c r="O87" s="9"/>
       <c r="P87" s="9"/>
     </row>
-    <row r="88" spans="1:16" ht="409.6">
+    <row r="88" spans="1:16" ht="409.5">
       <c r="A88" s="6"/>
       <c r="B88" s="7">
         <v>1997</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="H88" s="9"/>
       <c r="I88" s="9"/>
@@ -6542,25 +9284,25 @@
       <c r="O88" s="9"/>
       <c r="P88" s="9"/>
     </row>
-    <row r="89" spans="1:16" ht="409.6">
+    <row r="89" spans="1:16" ht="405.75">
       <c r="A89" s="13"/>
       <c r="B89" s="13">
         <v>2004</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E89" s="14" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="G89" s="9" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="H89" s="15"/>
       <c r="I89" s="9"/>
@@ -6572,32 +9314,32 @@
       <c r="O89" s="15"/>
       <c r="P89" s="15"/>
     </row>
-    <row r="90" spans="1:16" ht="201.6">
+    <row r="90" spans="1:16" ht="202.5">
       <c r="A90" s="6"/>
       <c r="B90" s="7">
         <v>1973</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E90" s="22" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="G90" s="10" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="H90" s="10" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="K90" s="9"/>
       <c r="L90" s="9"/>
@@ -6606,32 +9348,32 @@
       <c r="O90" s="9"/>
       <c r="P90" s="9"/>
     </row>
-    <row r="91" spans="1:16" ht="409.6">
+    <row r="91" spans="1:16" ht="409.5">
       <c r="A91" s="6"/>
       <c r="B91" s="7">
         <v>1984</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="G91" s="10" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="H91" s="10" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="K91" s="9"/>
       <c r="L91" s="9"/>
@@ -6640,32 +9382,32 @@
       <c r="O91" s="9"/>
       <c r="P91" s="9"/>
     </row>
-    <row r="92" spans="1:16" ht="409.6">
+    <row r="92" spans="1:16" ht="409.5">
       <c r="A92" s="6"/>
       <c r="B92" s="7" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="G92" s="18" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="H92" s="18" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="K92" s="9"/>
       <c r="L92" s="9"/>
@@ -6674,22 +9416,22 @@
       <c r="O92" s="9"/>
       <c r="P92" s="9"/>
     </row>
-    <row r="93" spans="1:16" ht="72">
+    <row r="93" spans="1:16" ht="67.5">
       <c r="A93" s="6"/>
       <c r="B93" s="7" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G93" s="9"/>
       <c r="H93" s="9"/>
@@ -6702,25 +9444,25 @@
       <c r="O93" s="9"/>
       <c r="P93" s="9"/>
     </row>
-    <row r="94" spans="1:16" ht="409.6">
+    <row r="94" spans="1:16" ht="409.5">
       <c r="A94" s="6"/>
       <c r="B94" s="7">
         <v>2014</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E94" s="23" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G94" s="9" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="H94" s="9"/>
       <c r="I94" s="9"/>
@@ -6732,23 +9474,23 @@
       <c r="O94" s="9"/>
       <c r="P94" s="9"/>
     </row>
-    <row r="95" spans="1:16" ht="374.4">
+    <row r="95" spans="1:16" ht="351">
       <c r="A95" s="6"/>
       <c r="B95" s="7" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="F95" s="8"/>
       <c r="G95" s="21" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="H95" s="9"/>
       <c r="I95" s="9"/>
@@ -6760,25 +9502,25 @@
       <c r="O95" s="9"/>
       <c r="P95" s="9"/>
     </row>
-    <row r="96" spans="1:16" ht="409.6">
+    <row r="96" spans="1:16" ht="409.5">
       <c r="A96" s="6"/>
       <c r="B96" s="7" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E96" s="8" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="G96" s="21" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="H96" s="9"/>
       <c r="I96" s="9"/>
@@ -6790,25 +9532,25 @@
       <c r="O96" s="9"/>
       <c r="P96" s="9"/>
     </row>
-    <row r="97" spans="1:16" ht="409.6">
+    <row r="97" spans="1:16" ht="409.5">
       <c r="A97" s="6"/>
       <c r="B97" s="7" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="G97" s="40" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="H97" s="9"/>
       <c r="I97" s="9"/>
@@ -6820,25 +9562,25 @@
       <c r="O97" s="9"/>
       <c r="P97" s="9"/>
     </row>
-    <row r="98" spans="1:16" ht="409.6">
+    <row r="98" spans="1:16" ht="409.5">
       <c r="A98" s="6"/>
       <c r="B98" s="7" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G98" s="21" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="H98" s="9"/>
       <c r="I98" s="9"/>
@@ -6850,21 +9592,21 @@
       <c r="O98" s="9"/>
       <c r="P98" s="9"/>
     </row>
-    <row r="99" spans="1:16" ht="172.8">
+    <row r="99" spans="1:16" ht="162">
       <c r="A99" s="6"/>
       <c r="B99" s="7">
         <v>1797</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="9" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="H99" s="9"/>
       <c r="I99" s="9"/>
@@ -6876,23 +9618,23 @@
       <c r="O99" s="9"/>
       <c r="P99" s="9"/>
     </row>
-    <row r="100" spans="1:16" ht="230.4">
+    <row r="100" spans="1:16" ht="216">
       <c r="A100" s="6"/>
       <c r="B100" s="7" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E100" s="8" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="F100" s="8"/>
       <c r="G100" s="9" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="H100" s="9"/>
       <c r="I100" s="9"/>
@@ -6906,22 +9648,22 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D100" xr:uid="{07227542-5CB6-4510-953B-CBF4270427CF}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D100">
       <formula1>"Занесен в базу,В работе,Опубликован"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="G9" r:id="rId1" xr:uid="{F6449079-E869-415C-8642-C99E6A6194FC}"/>
-    <hyperlink ref="G18" r:id="rId2" xr:uid="{0D5B9575-D705-48B7-80A7-BC0025180170}"/>
-    <hyperlink ref="G19" r:id="rId3" xr:uid="{895EF6E6-9C88-4E21-AB0A-10261F1FC51F}"/>
-    <hyperlink ref="G20" r:id="rId4" xr:uid="{54F01B9C-EBF0-48A8-947A-111C958087A9}"/>
-    <hyperlink ref="G21" r:id="rId5" xr:uid="{6363C615-B0F8-438D-BFBA-E4CDA85894FD}"/>
-    <hyperlink ref="G22" r:id="rId6" xr:uid="{DAADE4E8-EE0C-4659-96E7-FBA950C17670}"/>
-    <hyperlink ref="G31" r:id="rId7" xr:uid="{D9AFAD69-0524-4D2C-A20F-B48CF5743D19}"/>
-    <hyperlink ref="G95" r:id="rId8" xr:uid="{688AB55B-FB5A-4DEA-A491-382D1882049E}"/>
-    <hyperlink ref="G96" r:id="rId9" xr:uid="{6CB12E53-64D0-4C92-88A1-226E407B86D5}"/>
-    <hyperlink ref="G97" r:id="rId10" xr:uid="{25A76861-CCE7-4305-97F5-85ACADC1E2A2}"/>
-    <hyperlink ref="G98" r:id="rId11" xr:uid="{40F172AD-36C1-48F2-A324-996477F9DAF1}"/>
+    <hyperlink ref="G9" r:id="rId1"/>
+    <hyperlink ref="G18" r:id="rId2"/>
+    <hyperlink ref="G19" r:id="rId3"/>
+    <hyperlink ref="G20" r:id="rId4"/>
+    <hyperlink ref="G21" r:id="rId5"/>
+    <hyperlink ref="G22" r:id="rId6"/>
+    <hyperlink ref="G31" r:id="rId7"/>
+    <hyperlink ref="G95" r:id="rId8"/>
+    <hyperlink ref="G96" r:id="rId9"/>
+    <hyperlink ref="G97" r:id="rId10"/>
+    <hyperlink ref="G98" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/app/Data.xlsx
+++ b/app/Data.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="700">
   <si>
     <t>ID</t>
   </si>
@@ -2854,9 +2854,6 @@
     <t>0008_Шуваловский_проезд</t>
   </si>
   <si>
-    <t>0010_Государев бастион</t>
-  </si>
-  <si>
     <t>0012_Могила Джакомо Кваренги</t>
   </si>
   <si>
@@ -2983,9 +2980,6 @@
     <t>Наугольные палаты Меншиковского дворца</t>
   </si>
   <si>
-    <t xml:space="preserve">Слобода Колтовского полка </t>
-  </si>
-  <si>
     <t>Археологическое исследование Бумагопрядильной фабрики «Возрождение» и культурного слоя рубежа XVIII-XIX вв. – 1 трети XIX в. (Археологические исследования в излучине реки Невы)</t>
   </si>
   <si>
@@ -3034,9 +3028,6 @@
     <t>0041_Лошадиное_кладбище</t>
   </si>
   <si>
-    <t>ИСТОЧНИК</t>
-  </si>
-  <si>
     <t xml:space="preserve">0042_Ниеншанц </t>
   </si>
   <si>
@@ -3196,9 +3187,6 @@
     <t xml:space="preserve"> 0093_Дворец_Орлова_в_Орловском_парке</t>
   </si>
   <si>
-    <t>0097_Нижний_и_Верхний_парк_Петергоф</t>
-  </si>
-  <si>
     <t>0096_Английский_парк_Петергоф</t>
   </si>
   <si>
@@ -3221,6 +3209,237 @@
   </si>
   <si>
     <t>0102_Летний_дворец_Петра_в_парке_Дубки</t>
+  </si>
+  <si>
+    <t>ПО: АРХЕОЛОГИЧЕСКОЕ ИЗУЧЕНИЕ САНКТ-ПЕТЕРБУРГА В 1996-2004 С 30-69</t>
+  </si>
+  <si>
+    <t>0103_Угол_Малого_пр_и_4_линии_ВО</t>
+  </si>
+  <si>
+    <t>ПО: АРХЕОЛОГИЧЕСКОЕ ИЗУЧЕНИЕ САНКТ-ПЕТЕРБУРГА В 1996-2004 С 69-88</t>
+  </si>
+  <si>
+    <t>ПО: АРХЕОЛОГИЧЕСКОЕ ИЗУЧЕНИЕ САНКТ-ПЕТЕРБУРГА В 1996-2004 С 30-69 + с 77</t>
+  </si>
+  <si>
+    <t>0104_Шурф_во_дворе_ИРЛИ</t>
+  </si>
+  <si>
+    <t>ПО: АРХЕОЛОГИЧЕСКОЕ ИЗУЧЕНИЕ САНКТ-ПЕТЕРБУРГА В 1996-2004 С 83-84</t>
+  </si>
+  <si>
+    <t>0105_Шурфы_Средний_пр_и_17-18_линия_ВО</t>
+  </si>
+  <si>
+    <t>ПО: АРХЕОЛОГИЧЕСКОЕ ИЗУЧЕНИЕ САНКТ-ПЕТЕРБУРГА В 1996-2004 С 82-84</t>
+  </si>
+  <si>
+    <t>0106_Шурфы_у_д3_по_Гаванской_улице</t>
+  </si>
+  <si>
+    <t>ПО: АРХЕОЛОГИЧЕСКОЕ ИЗУЧЕНИЕ САНКТ-ПЕТЕРБУРГА В 1996-2004 С 85</t>
+  </si>
+  <si>
+    <t>0107_Дворец_Бобринских</t>
+  </si>
+  <si>
+    <t>ПО: АРХЕОЛОГИЧЕСКОЕ ИЗУЧЕНИЕ САНКТ-ПЕТЕРБУРГА В 1996-2004 С 122-136</t>
+  </si>
+  <si>
+    <t>ПО: АРХЕОЛОГИЧЕСКОЕ ИЗУЧЕНИЕ САНКТ-ПЕТЕРБУРГА В 1996-2004 С 138</t>
+  </si>
+  <si>
+    <t>0108_Оперный_деревянный_театр_Вернхний_сад_Петергоф</t>
+  </si>
+  <si>
+    <t>0097_Партерные_цветники_Верхний_сад_Петергоф</t>
+  </si>
+  <si>
+    <t>ПО: АРХЕОЛОГИЧЕСКОЕ ИЗУЧЕНИЕ САНКТ-ПЕТЕРБУРГА В 1996-2004 С 30-69 + с 150</t>
+  </si>
+  <si>
+    <t>0109_Оранжерейный_булингрин_Нижний_парк_Петергоф</t>
+  </si>
+  <si>
+    <t>ПО: АРХЕОЛОГИЧЕСКОЕ ИЗУЧЕНИЕ САНКТ-ПЕТЕРБУРГА В 1996-2004 С 142</t>
+  </si>
+  <si>
+    <t>ПО: АРХЕОЛОГИЧЕСКОЕ ИЗУЧЕНИЕ САНКТ-ПЕТЕРБУРГА В 1996-2004 С 152</t>
+  </si>
+  <si>
+    <t>0110_Купальня_Восточный_Вольер_Нижний_парк</t>
+  </si>
+  <si>
+    <t>ПО: АРХЕОЛОГИЧЕСКОЕ ИЗУЧЕНИЕ САНКТ-ПЕТЕРБУРГА В 1996-2004 С 153</t>
+  </si>
+  <si>
+    <t>0111_Лебяжий_пруд_Нижний_парк</t>
+  </si>
+  <si>
+    <t>ПО: АРХЕОЛОГИЧЕСКОЕ ИЗУЧЕНИЕ САНКТ-ПЕТЕРБУРГА В 1996-2004 С 156</t>
+  </si>
+  <si>
+    <t>0112_Восточный_лабиринт_Нижний_парк</t>
+  </si>
+  <si>
+    <t>ПО: АРХЕОЛОГИЧЕСКОЕ ИЗУЧЕНИЕ САНКТ-ПЕТЕРБУРГА В 1996-2004 С 157</t>
+  </si>
+  <si>
+    <t>ПО: АРХЕОЛОГИЧЕСКОЕ ИЗУЧЕНИЕ САНКТ-ПЕТЕРБУРГА В 1996-2004 С 170</t>
+  </si>
+  <si>
+    <t>ПО: АРХЕОЛОГИЧЕСКОЕ ИЗУЧЕНИЕ САНКТ-ПЕТЕРБУРГА В 1996-2004 С 166-168</t>
+  </si>
+  <si>
+    <t>0114_Павильон_Ольгин_остров_Колонистский_парк</t>
+  </si>
+  <si>
+    <t>0113_Павильон_Царицын_остров_Колонистский_парк</t>
+  </si>
+  <si>
+    <t>ПО: АРХЕОЛОГИЧЕСКОЕ ИЗУЧЕНИЕ САНКТ-ПЕТЕРБУРГА В 1996-2004 С 175</t>
+  </si>
+  <si>
+    <t>0115_Первый_шлюз_Руинного_моста_Александрия</t>
+  </si>
+  <si>
+    <t>0116_Потешная_крепость_Александрия</t>
+  </si>
+  <si>
+    <t>ПО: АРХЕОЛОГИЧЕСКОЕ ИЗУЧЕНИЕ САНКТ-ПЕТЕРБУРГА В 1996-2004 С 177</t>
+  </si>
+  <si>
+    <t>0117_Детская_пожарная_каланча_Александрия</t>
+  </si>
+  <si>
+    <t>ПО: АРХЕОЛОГИЧЕСКОЕ ИЗУЧЕНИЕ САНКТ-ПЕТЕРБУРГА В 1996-2004 С 179</t>
+  </si>
+  <si>
+    <t>0118_Детская_водяная_мельница_Александрия</t>
+  </si>
+  <si>
+    <t>ПО: АРХЕОЛОГИЧЕСКОЕ ИЗУЧЕНИЕ САНКТ-ПЕТЕРБУРГА В 1996-2004 С 180-181</t>
+  </si>
+  <si>
+    <t>0119_Корт_для_лаун-тенниса_Александрия</t>
+  </si>
+  <si>
+    <t>ПО: АРХЕОЛОГИЧЕСКОЕ ИЗУЧЕНИЕ САНКТ-ПЕТЕРБУРГА В 1996-2004 С 183</t>
+  </si>
+  <si>
+    <t>0120_Игровые_площадки_у_Дворца_Коттедж</t>
+  </si>
+  <si>
+    <t>ПО: АРХЕОЛОГИЧЕСКОЕ ИЗУЧЕНИЕ САНКТ-ПЕТЕРБУРГА В 1996-2004 С 184</t>
+  </si>
+  <si>
+    <t>ПО: АРХЕОЛОГИЧЕСКОЕ ИЗУЧЕНИЕ САНКТ-ПЕТЕРБУРГА В 1996-2004 С 182</t>
+  </si>
+  <si>
+    <t>0121_Сосновый_дом_Александрия</t>
+  </si>
+  <si>
+    <t>0122_Собственный_сад_Александрия</t>
+  </si>
+  <si>
+    <t>ПО: АРХЕОЛОГИЧЕСКОЕ ИЗУЧЕНИЕ САНКТ-ПЕТЕРБУРГА В 1996-2004 С 186</t>
+  </si>
+  <si>
+    <t>ПО: АРХЕОЛОГИЧЕСКОЕ ИЗУЧЕНИЕ САНКТ-ПЕТЕРБУРГА В 1996-2004 С 189</t>
+  </si>
+  <si>
+    <t>0123_Сад_у_дома_великих_князей_Николая_и_Михаила_Александрия</t>
+  </si>
+  <si>
+    <t>0124_Большой_пруд_Александрия</t>
+  </si>
+  <si>
+    <t>ПО: АРХЕОЛОГИЧЕСКОЕ ИЗУЧЕНИЕ САНКТ-ПЕТЕРБУРГА В 1996-2004 С 192</t>
+  </si>
+  <si>
+    <t>0125_Сад_у_Нижнего_Дворца_Александрия</t>
+  </si>
+  <si>
+    <t>ПО: АРХЕОЛОГИЧЕСКОЕ ИЗУЧЕНИЕ САНКТ-ПЕТЕРБУРГА В 1996-2004 С 193</t>
+  </si>
+  <si>
+    <t>ПО: АРХЕОЛОГИЧЕСКОЕ ИЗУЧЕНИЕ САНКТ-ПЕТЕРБУРГА В 1996-2004 С 194</t>
+  </si>
+  <si>
+    <t>0127_Огород_у_Константиновского_дома_Александрия</t>
+  </si>
+  <si>
+    <t>0126_Конюшня_и_столовая_для_рабочих_в_Новой_ферме_Александрия</t>
+  </si>
+  <si>
+    <t>ПО: АРХЕОЛОГИЧЕСКОЕ ИЗУЧЕНИЕ САНКТ-ПЕТЕРБУРГА В 1996-2004 С 195</t>
+  </si>
+  <si>
+    <t>0128_Аллея_у_Каменного_дивана_Александрия</t>
+  </si>
+  <si>
+    <t>ПО: АРХЕОЛОГИЧЕСКОЕ ИЗУЧЕНИЕ САНКТ-ПЕТЕРБУРГА В 1996-2004 С 196</t>
+  </si>
+  <si>
+    <t>0129_Колодец_у_Конюшенного_домаэ</t>
+  </si>
+  <si>
+    <t>ПО: АРХЕОЛОГИЧЕСКОЕ ИЗУЧЕНИЕ САНКТ-ПЕТЕРБУРГА В 1996-2004 С 197</t>
+  </si>
+  <si>
+    <t>0130_Дворец_Монкураж</t>
+  </si>
+  <si>
+    <t>0131_Портомойня_на_Торговой_площади_Петергоф</t>
+  </si>
+  <si>
+    <t>ПО: АРХЕОЛОГИЧЕСКОЕ ИЗУЧЕНИЕ САНКТ-ПЕТЕРБУРГА В 1996-2004 С 198</t>
+  </si>
+  <si>
+    <t>0132_Волховский_переулок</t>
+  </si>
+  <si>
+    <t>ПО: АРХЕОЛОГИЧЕСКОЕ ИЗУЧЕНИЕ САНКТ-ПЕТЕРБУРГА В 1996-2004 С 202</t>
+  </si>
+  <si>
+    <t>0133_Усадьба_Кокорева_Царское_село</t>
+  </si>
+  <si>
+    <t>Слобода Колтовского полка ПО: Арх иссл 1996-2004 с 215</t>
+  </si>
+  <si>
+    <t>ПО: АРХЕОЛОГИЧЕСКОЕ ИЗУЧЕНИЕ САНКТ-ПЕТЕРБУРГА В 1996-2004 С 210</t>
+  </si>
+  <si>
+    <t>ПРИМЕЧАНИЕ</t>
+  </si>
+  <si>
+    <t>ППК</t>
+  </si>
+  <si>
+    <t>0010_Потерна_и_первый_каземат_правого_фаса_Государева_бастиона</t>
+  </si>
+  <si>
+    <t>0134_Казанский_собор</t>
+  </si>
+  <si>
+    <t>ПО: АРХЕОЛОГИЧЕСКОЕ НАСЛЕДИЕ СПБ ВЫП.1 с 101</t>
+  </si>
+  <si>
+    <t>ПО: АРХЕОЛОГИЧЕСКОЕ НАСЛЕДИЕ СПБ ВЫП.1 с 160</t>
+  </si>
+  <si>
+    <t>0135_Археологический_надзор_на_территории_ППК_2006-07</t>
+  </si>
+  <si>
+    <t>ПО: АРХЕОЛОГИЧЕСКОЕ НАСЛЕДИЕ СПБ ВЫП.1 с 242</t>
+  </si>
+  <si>
+    <t>0136_Двор_Трубецкого_Бастиона_ППК</t>
+  </si>
+  <si>
+    <t>ПО: ТРУДЫ ГМИ СПБ ВЫП. 10 с 21</t>
   </si>
 </sst>
 </file>
@@ -3925,8 +4144,8 @@
   <dimension ref="A1:T151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B104" sqref="B104"/>
+      <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D138" sqref="D138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -3999,7 +4218,7 @@
         <v>18</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>564</v>
+        <v>690</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="61.15" customHeight="1">
@@ -4219,7 +4438,7 @@
         <v>503</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="J9" s="51">
         <v>59.941507000000001</v>
@@ -4233,10 +4452,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C10" s="41" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="I10" s="50"/>
       <c r="J10" s="50">
@@ -4245,13 +4464,16 @@
       <c r="K10" s="41">
         <v>30.316936999999999</v>
       </c>
+      <c r="T10" t="s">
+        <v>691</v>
+      </c>
     </row>
     <row r="11" spans="1:20" ht="19.899999999999999" customHeight="1">
       <c r="A11" s="41">
         <v>10</v>
       </c>
       <c r="B11" s="41" t="s">
-        <v>504</v>
+        <v>692</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>109</v>
@@ -4263,6 +4485,9 @@
       <c r="K11" s="41">
         <v>30.319932999999999</v>
       </c>
+      <c r="T11" t="s">
+        <v>691</v>
+      </c>
     </row>
     <row r="12" spans="1:20" ht="19.899999999999999" customHeight="1">
       <c r="A12" s="41">
@@ -4287,7 +4512,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>121</v>
@@ -4304,10 +4529,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="41" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C14" s="52" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J14" s="52">
         <v>59.943702999999999</v>
@@ -4321,10 +4546,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="41" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I15" s="53"/>
       <c r="J15" s="41">
@@ -4339,10 +4564,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="56" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C16" s="56" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I16" s="57"/>
       <c r="J16" s="56">
@@ -4358,10 +4583,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="41" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="I17" s="50"/>
       <c r="J17" s="41">
@@ -4376,10 +4601,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="41" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C18" s="54" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="I18" s="49"/>
       <c r="J18" s="41">
@@ -4394,10 +4619,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="41" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C19" s="41" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="I19" s="55"/>
       <c r="J19" s="41">
@@ -4412,10 +4637,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="41" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C20" s="41" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="I20" s="55"/>
       <c r="J20" s="41">
@@ -4430,10 +4655,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="41" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C21" s="41" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I21" s="55"/>
       <c r="J21" s="41">
@@ -4448,10 +4673,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="41" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C22" s="41" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I22" s="55"/>
       <c r="J22" s="41">
@@ -4466,7 +4691,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="41" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>185</v>
@@ -4484,10 +4709,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="41" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C24" s="41" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I24" s="55"/>
       <c r="J24" s="41">
@@ -4502,10 +4727,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="41" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>547</v>
+        <v>688</v>
       </c>
       <c r="I25" s="50"/>
       <c r="J25" s="41">
@@ -4520,10 +4745,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="41" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C26" s="41" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="I26" s="55"/>
       <c r="J26" s="41">
@@ -4538,10 +4763,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="41" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C27" s="41" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="I27" s="55"/>
       <c r="J27" s="41">
@@ -4556,7 +4781,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="41" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C28" s="41" t="s">
         <v>263</v>
@@ -4574,10 +4799,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="41" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C29" s="41" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="I29" s="55"/>
       <c r="J29" s="41">
@@ -4592,10 +4817,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="41" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C30" s="41" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="I30" s="55"/>
       <c r="J30" s="41">
@@ -4610,10 +4835,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="41" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C31" s="41" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="J31" s="41">
         <v>59.944068000000001</v>
@@ -4627,10 +4852,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="41" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C32" s="41" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="J32" s="41">
         <v>59.973868000000003</v>
@@ -4644,10 +4869,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="41" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C33" s="41" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="I33" s="55"/>
       <c r="J33" s="41">
@@ -4662,10 +4887,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="41" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C34" s="41" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="I34" s="55"/>
       <c r="J34" s="41">
@@ -4680,10 +4905,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="41" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C35" s="41" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="I35" s="55"/>
       <c r="J35" s="41">
@@ -4698,10 +4923,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="41" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C36" s="41" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="I36" s="55"/>
       <c r="J36" s="41">
@@ -4716,10 +4941,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="41" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C37" s="41" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="I37" s="55"/>
       <c r="J37" s="41">
@@ -4734,10 +4959,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="41" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C38" s="41" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="I38" s="55"/>
       <c r="J38" s="41">
@@ -4752,10 +4977,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="41" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C39" s="55" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="I39" s="55"/>
       <c r="J39" s="41">
@@ -4770,10 +4995,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="41" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C40" s="41" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="I40" s="55"/>
       <c r="J40" s="41">
@@ -4788,10 +5013,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="41" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C41" s="41" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="I41" s="55"/>
       <c r="J41" s="41">
@@ -4806,7 +5031,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="41" t="s">
-        <v>563</v>
+        <v>561</v>
+      </c>
+      <c r="D42" s="41" t="s">
+        <v>695</v>
       </c>
       <c r="I42" s="55"/>
     </row>
@@ -4815,7 +5043,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="41" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="19.899999999999999" customHeight="1">
@@ -4823,7 +5051,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="41" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="19.899999999999999" customHeight="1">
@@ -4831,7 +5059,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="41" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="19.899999999999999" customHeight="1">
@@ -4839,7 +5067,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="41" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="19.899999999999999" customHeight="1">
@@ -4847,7 +5075,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="41" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="19.899999999999999" customHeight="1">
@@ -4855,7 +5083,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="41" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="49" spans="1:20" ht="19.899999999999999" customHeight="1">
@@ -4863,7 +5091,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="41" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="50" spans="1:20" ht="19.899999999999999" customHeight="1">
@@ -4871,7 +5099,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="41" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="51" spans="1:20" ht="19.899999999999999" customHeight="1">
@@ -4879,7 +5107,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="41" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="52" spans="1:20" ht="19.899999999999999" customHeight="1">
@@ -4887,7 +5115,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="41" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="53" spans="1:20" ht="19.899999999999999" customHeight="1">
@@ -4895,7 +5123,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="41" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="54" spans="1:20" ht="19.899999999999999" customHeight="1">
@@ -4903,7 +5131,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="41" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="55" spans="1:20" ht="19.899999999999999" customHeight="1">
@@ -4911,7 +5139,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="41" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="56" spans="1:20" ht="19.899999999999999" customHeight="1">
@@ -4919,7 +5147,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="41" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="57" spans="1:20" ht="19.899999999999999" customHeight="1">
@@ -4927,7 +5155,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="41" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="58" spans="1:20" ht="19.899999999999999" customHeight="1">
@@ -4935,7 +5163,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="41" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="59" spans="1:20" ht="19.899999999999999" customHeight="1">
@@ -4943,7 +5171,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="41" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="60" spans="1:20" ht="19.899999999999999" customHeight="1">
@@ -4951,7 +5179,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="41" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="61" spans="1:20" ht="19.899999999999999" customHeight="1">
@@ -4959,7 +5187,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="41" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="62" spans="1:20" ht="19.899999999999999" customHeight="1">
@@ -4967,10 +5195,13 @@
         <v>61</v>
       </c>
       <c r="B62" s="41" t="s">
-        <v>585</v>
+        <v>582</v>
+      </c>
+      <c r="D62" s="41" t="s">
+        <v>623</v>
       </c>
       <c r="T62" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="63" spans="1:20" ht="19.899999999999999" customHeight="1">
@@ -4978,7 +5209,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="41" t="s">
-        <v>586</v>
+        <v>583</v>
+      </c>
+      <c r="D63" s="41" t="s">
+        <v>623</v>
       </c>
     </row>
     <row r="64" spans="1:20" ht="19.899999999999999" customHeight="1">
@@ -4986,522 +5220,852 @@
         <v>63</v>
       </c>
       <c r="B64" s="41" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="19.899999999999999" customHeight="1">
+        <v>584</v>
+      </c>
+      <c r="D64" s="41" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="19.899999999999999" customHeight="1">
       <c r="A65" s="41">
         <v>64</v>
       </c>
       <c r="B65" s="41" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="19.899999999999999" customHeight="1">
+        <v>585</v>
+      </c>
+      <c r="D65" s="41" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="19.899999999999999" customHeight="1">
       <c r="A66" s="41">
         <v>65</v>
       </c>
       <c r="B66" s="41" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="19.899999999999999" customHeight="1">
+        <v>586</v>
+      </c>
+      <c r="D66" s="41" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="19.899999999999999" customHeight="1">
       <c r="A67" s="41">
         <v>66</v>
       </c>
       <c r="B67" s="41" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="19.899999999999999" customHeight="1">
+        <v>587</v>
+      </c>
+      <c r="D67" s="41" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="19.899999999999999" customHeight="1">
       <c r="A68" s="41">
         <v>67</v>
       </c>
       <c r="B68" s="41" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="19.899999999999999" customHeight="1">
+        <v>588</v>
+      </c>
+      <c r="D68" s="41" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="19.899999999999999" customHeight="1">
       <c r="A69" s="41">
         <v>68</v>
       </c>
       <c r="B69" s="41" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="19.899999999999999" customHeight="1">
+        <v>589</v>
+      </c>
+      <c r="D69" s="41" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="19.899999999999999" customHeight="1">
       <c r="A70" s="41">
         <v>69</v>
       </c>
       <c r="B70" s="41" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="19.899999999999999" customHeight="1">
+        <v>590</v>
+      </c>
+      <c r="D70" s="41" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="19.899999999999999" customHeight="1">
       <c r="A71" s="41">
         <v>70</v>
       </c>
       <c r="B71" s="41" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="19.899999999999999" customHeight="1">
+        <v>591</v>
+      </c>
+      <c r="D71" s="41" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="19.899999999999999" customHeight="1">
       <c r="A72" s="41">
         <v>71</v>
       </c>
       <c r="B72" s="41" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="19.899999999999999" customHeight="1">
+        <v>592</v>
+      </c>
+      <c r="D72" s="41" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="19.899999999999999" customHeight="1">
       <c r="A73" s="41">
         <v>72</v>
       </c>
       <c r="B73" s="41" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="19.899999999999999" customHeight="1">
+        <v>593</v>
+      </c>
+      <c r="D73" s="41" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="19.899999999999999" customHeight="1">
       <c r="A74" s="41">
         <v>73</v>
       </c>
       <c r="B74" s="41" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="19.899999999999999" customHeight="1">
+        <v>594</v>
+      </c>
+      <c r="D74" s="41" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="19.899999999999999" customHeight="1">
       <c r="A75" s="41">
         <v>74</v>
       </c>
       <c r="B75" s="41" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="19.899999999999999" customHeight="1">
+        <v>595</v>
+      </c>
+      <c r="D75" s="41" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="19.899999999999999" customHeight="1">
       <c r="A76" s="41">
         <v>75</v>
       </c>
       <c r="B76" s="41" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="19.899999999999999" customHeight="1">
+        <v>596</v>
+      </c>
+      <c r="D76" s="41" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="19.899999999999999" customHeight="1">
       <c r="A77" s="41">
         <v>76</v>
       </c>
       <c r="B77" s="41" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="19.899999999999999" customHeight="1">
+        <v>597</v>
+      </c>
+      <c r="D77" s="41" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="19.899999999999999" customHeight="1">
       <c r="A78" s="41">
         <v>77</v>
       </c>
       <c r="B78" s="41" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="19.899999999999999" customHeight="1">
+        <v>598</v>
+      </c>
+      <c r="D78" s="41" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="19.899999999999999" customHeight="1">
       <c r="A79" s="41">
         <v>78</v>
       </c>
       <c r="B79" s="41" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="19.899999999999999" customHeight="1">
+        <v>599</v>
+      </c>
+      <c r="D79" s="41" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="19.899999999999999" customHeight="1">
       <c r="A80" s="41">
         <v>79</v>
       </c>
       <c r="B80" s="41" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="19.899999999999999" customHeight="1">
+        <v>600</v>
+      </c>
+      <c r="D80" s="41" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="19.899999999999999" customHeight="1">
       <c r="A81" s="41">
         <v>80</v>
       </c>
       <c r="B81" s="41" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="19.899999999999999" customHeight="1">
+        <v>601</v>
+      </c>
+      <c r="D81" s="41" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="19.899999999999999" customHeight="1">
       <c r="A82" s="41">
         <v>81</v>
       </c>
       <c r="B82" s="41" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="19.899999999999999" customHeight="1">
+        <v>602</v>
+      </c>
+      <c r="D82" s="41" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="19.899999999999999" customHeight="1">
       <c r="A83" s="41">
         <v>82</v>
       </c>
       <c r="B83" s="41" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="19.899999999999999" customHeight="1">
+        <v>603</v>
+      </c>
+      <c r="D83" s="41" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="19.899999999999999" customHeight="1">
       <c r="A84" s="41">
         <v>83</v>
       </c>
       <c r="B84" s="41" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="19.899999999999999" customHeight="1">
+        <v>604</v>
+      </c>
+      <c r="D84" s="41" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="19.899999999999999" customHeight="1">
       <c r="A85" s="41">
         <v>84</v>
       </c>
       <c r="B85" s="41" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="19.899999999999999" customHeight="1">
+        <v>605</v>
+      </c>
+      <c r="D85" s="41" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="19.899999999999999" customHeight="1">
       <c r="A86" s="41">
         <v>85</v>
       </c>
       <c r="B86" s="41" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="19.899999999999999" customHeight="1">
+        <v>606</v>
+      </c>
+      <c r="D86" s="41" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="19.899999999999999" customHeight="1">
       <c r="A87" s="41">
         <v>86</v>
       </c>
       <c r="B87" s="41" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="19.899999999999999" customHeight="1">
+        <v>607</v>
+      </c>
+      <c r="D87" s="41" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="19.899999999999999" customHeight="1">
       <c r="A88" s="41">
         <v>87</v>
       </c>
       <c r="B88" s="41" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="19.899999999999999" customHeight="1">
+        <v>608</v>
+      </c>
+      <c r="D88" s="41" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="19.899999999999999" customHeight="1">
       <c r="A89" s="41">
         <v>88</v>
       </c>
       <c r="B89" s="41" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="19.899999999999999" customHeight="1">
+        <v>609</v>
+      </c>
+      <c r="D89" s="41" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="19.899999999999999" customHeight="1">
       <c r="A90" s="41">
         <v>89</v>
       </c>
       <c r="B90" s="41" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="19.899999999999999" customHeight="1">
+        <v>610</v>
+      </c>
+      <c r="D90" s="41" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="19.899999999999999" customHeight="1">
       <c r="A91" s="41">
         <v>90</v>
       </c>
       <c r="B91" s="41" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="19.899999999999999" customHeight="1">
+        <v>611</v>
+      </c>
+      <c r="D91" s="41" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="19.899999999999999" customHeight="1">
       <c r="A92" s="41">
         <v>91</v>
       </c>
       <c r="B92" s="41" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" ht="19.899999999999999" customHeight="1">
+        <v>612</v>
+      </c>
+      <c r="D92" s="41" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="19.899999999999999" customHeight="1">
       <c r="A93" s="41">
         <v>92</v>
       </c>
       <c r="B93" s="41" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" ht="19.899999999999999" customHeight="1">
+        <v>613</v>
+      </c>
+      <c r="D93" s="41" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="19.899999999999999" customHeight="1">
       <c r="A94" s="41">
         <v>93</v>
       </c>
       <c r="B94" s="41" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" ht="19.899999999999999" customHeight="1">
+        <v>614</v>
+      </c>
+      <c r="D94" s="41" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="19.899999999999999" customHeight="1">
       <c r="A95" s="41">
         <v>94</v>
       </c>
       <c r="B95" s="41" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" ht="19.899999999999999" customHeight="1">
+        <v>617</v>
+      </c>
+      <c r="D95" s="41" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="19.899999999999999" customHeight="1">
       <c r="A96" s="41">
         <v>95</v>
       </c>
       <c r="B96" s="41" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" ht="19.899999999999999" customHeight="1">
+        <v>616</v>
+      </c>
+      <c r="D96" s="41" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="19.899999999999999" customHeight="1">
       <c r="A97" s="41">
         <v>96</v>
       </c>
       <c r="B97" s="41" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="19.899999999999999" customHeight="1">
+        <v>615</v>
+      </c>
+      <c r="D97" s="41" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="19.899999999999999" customHeight="1">
       <c r="A98" s="41">
         <v>97</v>
       </c>
       <c r="B98" s="41" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" ht="19.899999999999999" customHeight="1">
+        <v>637</v>
+      </c>
+      <c r="D98" s="41" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="19.899999999999999" customHeight="1">
       <c r="A99" s="41">
         <v>98</v>
       </c>
       <c r="B99" s="41" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" ht="19.899999999999999" customHeight="1">
+        <v>618</v>
+      </c>
+      <c r="D99" s="41" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="19.899999999999999" customHeight="1">
       <c r="A100" s="41">
         <v>99</v>
       </c>
       <c r="B100" s="41" t="s">
+        <v>619</v>
+      </c>
+      <c r="D100" s="41" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="19.899999999999999" customHeight="1">
+    <row r="101" spans="1:4" ht="19.899999999999999" customHeight="1">
       <c r="A101" s="41">
         <v>100</v>
       </c>
       <c r="B101" s="41" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" ht="19.899999999999999" customHeight="1">
+        <v>620</v>
+      </c>
+      <c r="D101" s="41" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="19.899999999999999" customHeight="1">
       <c r="A102" s="41">
         <v>101</v>
       </c>
       <c r="B102" s="41" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" ht="19.899999999999999" customHeight="1">
+        <v>621</v>
+      </c>
+      <c r="D102" s="41" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="19.899999999999999" customHeight="1">
       <c r="A103" s="41">
         <v>102</v>
       </c>
       <c r="B103" s="41" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" ht="19.899999999999999" customHeight="1">
+        <v>622</v>
+      </c>
+      <c r="D103" s="41" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="19.899999999999999" customHeight="1">
       <c r="A104" s="41">
         <v>103</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" ht="19.899999999999999" customHeight="1">
+      <c r="B104" s="41" t="s">
+        <v>624</v>
+      </c>
+      <c r="D104" s="41" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="19.899999999999999" customHeight="1">
       <c r="A105" s="41">
         <v>104</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" ht="19.899999999999999" customHeight="1">
+      <c r="B105" s="41" t="s">
+        <v>627</v>
+      </c>
+      <c r="D105" s="41" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="19.899999999999999" customHeight="1">
       <c r="A106" s="41">
         <v>105</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" ht="19.899999999999999" customHeight="1">
+      <c r="B106" s="41" t="s">
+        <v>629</v>
+      </c>
+      <c r="D106" s="41" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="19.899999999999999" customHeight="1">
       <c r="A107" s="41">
         <v>106</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" ht="19.899999999999999" customHeight="1">
+      <c r="B107" s="41" t="s">
+        <v>631</v>
+      </c>
+      <c r="D107" s="41" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="19.899999999999999" customHeight="1">
       <c r="A108" s="41">
         <v>107</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" ht="19.899999999999999" customHeight="1">
+      <c r="B108" s="41" t="s">
+        <v>633</v>
+      </c>
+      <c r="D108" s="41" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="19.899999999999999" customHeight="1">
       <c r="A109" s="41">
         <v>108</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" ht="19.899999999999999" customHeight="1">
+      <c r="B109" s="41" t="s">
+        <v>636</v>
+      </c>
+      <c r="D109" s="41" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="19.899999999999999" customHeight="1">
       <c r="A110" s="41">
         <v>109</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" ht="19.899999999999999" customHeight="1">
+      <c r="B110" s="41" t="s">
+        <v>639</v>
+      </c>
+      <c r="D110" s="41" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="19.899999999999999" customHeight="1">
       <c r="A111" s="41">
         <v>110</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" ht="19.899999999999999" customHeight="1">
+      <c r="B111" s="41" t="s">
+        <v>642</v>
+      </c>
+      <c r="D111" s="41" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="19.899999999999999" customHeight="1">
       <c r="A112" s="41">
         <v>111</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" ht="19.899999999999999" customHeight="1">
+      <c r="B112" s="41" t="s">
+        <v>644</v>
+      </c>
+      <c r="D112" s="41" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="19.899999999999999" customHeight="1">
       <c r="A113" s="41">
         <v>112</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" ht="19.899999999999999" customHeight="1">
+      <c r="B113" s="41" t="s">
+        <v>646</v>
+      </c>
+      <c r="D113" s="41" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="19.899999999999999" customHeight="1">
       <c r="A114" s="41">
         <v>113</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" ht="19.899999999999999" customHeight="1">
+      <c r="B114" s="41" t="s">
+        <v>651</v>
+      </c>
+      <c r="D114" s="41" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="19.899999999999999" customHeight="1">
       <c r="A115" s="41">
         <v>114</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" ht="19.899999999999999" customHeight="1">
+      <c r="B115" s="41" t="s">
+        <v>650</v>
+      </c>
+      <c r="D115" s="41" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="19.899999999999999" customHeight="1">
       <c r="A116" s="41">
         <v>115</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" ht="19.899999999999999" customHeight="1">
+      <c r="B116" s="41" t="s">
+        <v>653</v>
+      </c>
+      <c r="D116" s="41" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="19.899999999999999" customHeight="1">
       <c r="A117" s="41">
         <v>116</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" ht="19.899999999999999" customHeight="1">
+      <c r="B117" s="41" t="s">
+        <v>654</v>
+      </c>
+      <c r="D117" s="41" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="19.899999999999999" customHeight="1">
       <c r="A118" s="41">
         <v>117</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" ht="19.899999999999999" customHeight="1">
+      <c r="B118" s="41" t="s">
+        <v>656</v>
+      </c>
+      <c r="D118" s="41" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="19.899999999999999" customHeight="1">
       <c r="A119" s="41">
         <v>118</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" ht="19.899999999999999" customHeight="1">
+      <c r="B119" s="41" t="s">
+        <v>658</v>
+      </c>
+      <c r="D119" s="41" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="19.899999999999999" customHeight="1">
       <c r="A120" s="41">
         <v>119</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" ht="19.899999999999999" customHeight="1">
+      <c r="B120" s="41" t="s">
+        <v>660</v>
+      </c>
+      <c r="D120" s="41" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="19.899999999999999" customHeight="1">
       <c r="A121" s="41">
         <v>120</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" ht="19.899999999999999" customHeight="1">
+      <c r="B121" s="41" t="s">
+        <v>662</v>
+      </c>
+      <c r="D121" s="41" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="19.899999999999999" customHeight="1">
       <c r="A122" s="41">
         <v>121</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" ht="19.899999999999999" customHeight="1">
+      <c r="B122" s="41" t="s">
+        <v>665</v>
+      </c>
+      <c r="D122" s="41" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="19.899999999999999" customHeight="1">
       <c r="A123" s="41">
         <v>122</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" ht="19.899999999999999" customHeight="1">
+      <c r="B123" s="41" t="s">
+        <v>666</v>
+      </c>
+      <c r="D123" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="19.899999999999999" customHeight="1">
       <c r="A124" s="41">
         <v>123</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" ht="19.899999999999999" customHeight="1">
+      <c r="B124" s="41" t="s">
+        <v>669</v>
+      </c>
+      <c r="D124" s="41" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="19.899999999999999" customHeight="1">
       <c r="A125" s="41">
         <v>124</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" ht="19.899999999999999" customHeight="1">
+      <c r="B125" s="41" t="s">
+        <v>670</v>
+      </c>
+      <c r="D125" s="41" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="19.899999999999999" customHeight="1">
       <c r="A126" s="41">
         <v>125</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" ht="19.899999999999999" customHeight="1">
+      <c r="B126" s="41" t="s">
+        <v>672</v>
+      </c>
+      <c r="D126" s="41" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="19.899999999999999" customHeight="1">
       <c r="A127" s="41">
         <v>126</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" ht="19.899999999999999" customHeight="1">
+      <c r="B127" s="41" t="s">
+        <v>676</v>
+      </c>
+      <c r="D127" s="41" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="19.899999999999999" customHeight="1">
       <c r="A128" s="41">
         <v>127</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" ht="19.899999999999999" customHeight="1">
+      <c r="B128" s="41" t="s">
+        <v>675</v>
+      </c>
+      <c r="D128" s="41" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="129" spans="1:20" ht="19.899999999999999" customHeight="1">
       <c r="A129" s="41">
         <v>128</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" ht="19.899999999999999" customHeight="1">
+      <c r="B129" s="41" t="s">
+        <v>678</v>
+      </c>
+      <c r="D129" s="41" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="130" spans="1:20" ht="19.899999999999999" customHeight="1">
       <c r="A130" s="41">
         <v>129</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" ht="19.899999999999999" customHeight="1">
+      <c r="B130" s="41" t="s">
+        <v>680</v>
+      </c>
+      <c r="D130" s="41" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="131" spans="1:20" ht="19.899999999999999" customHeight="1">
       <c r="A131" s="41">
         <v>130</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" ht="19.899999999999999" customHeight="1">
+      <c r="B131" s="41" t="s">
+        <v>682</v>
+      </c>
+      <c r="D131" s="41" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="132" spans="1:20" ht="19.899999999999999" customHeight="1">
       <c r="A132" s="41">
         <v>131</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" ht="19.899999999999999" customHeight="1">
+      <c r="B132" s="41" t="s">
+        <v>683</v>
+      </c>
+      <c r="D132" s="41" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="133" spans="1:20" ht="19.899999999999999" customHeight="1">
       <c r="A133" s="41">
         <v>132</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" ht="19.899999999999999" customHeight="1">
+      <c r="B133" s="41" t="s">
+        <v>685</v>
+      </c>
+      <c r="D133" s="41" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="134" spans="1:20" ht="19.899999999999999" customHeight="1">
       <c r="A134" s="41">
         <v>133</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" ht="19.899999999999999" customHeight="1">
+      <c r="B134" s="41" t="s">
+        <v>687</v>
+      </c>
+      <c r="D134" s="41" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="135" spans="1:20" ht="19.899999999999999" customHeight="1">
       <c r="A135" s="41">
         <v>134</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" ht="19.899999999999999" customHeight="1">
+      <c r="B135" s="41" t="s">
+        <v>693</v>
+      </c>
+      <c r="D135" s="41" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="136" spans="1:20" ht="19.899999999999999" customHeight="1">
       <c r="A136" s="41">
         <v>135</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" ht="19.899999999999999" customHeight="1">
+      <c r="B136" s="41" t="s">
+        <v>696</v>
+      </c>
+      <c r="D136" s="41" t="s">
+        <v>697</v>
+      </c>
+      <c r="T136" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="137" spans="1:20" ht="19.899999999999999" customHeight="1">
       <c r="A137" s="41">
         <v>136</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" ht="19.899999999999999" customHeight="1">
+      <c r="B137" s="41" t="s">
+        <v>698</v>
+      </c>
+      <c r="D137" s="41" t="s">
+        <v>699</v>
+      </c>
+      <c r="T137" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="138" spans="1:20" ht="19.899999999999999" customHeight="1">
       <c r="A138" s="41">
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:1" ht="19.899999999999999" customHeight="1">
+    <row r="139" spans="1:20" ht="19.899999999999999" customHeight="1">
       <c r="A139" s="41">
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:1" ht="19.899999999999999" customHeight="1">
+    <row r="140" spans="1:20" ht="19.899999999999999" customHeight="1">
       <c r="A140" s="41">
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:1" ht="19.899999999999999" customHeight="1">
+    <row r="141" spans="1:20" ht="19.899999999999999" customHeight="1">
       <c r="A141" s="41">
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:1" ht="19.899999999999999" customHeight="1">
+    <row r="142" spans="1:20" ht="19.899999999999999" customHeight="1">
       <c r="A142" s="41">
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:1" ht="19.899999999999999" customHeight="1">
+    <row r="143" spans="1:20" ht="19.899999999999999" customHeight="1">
       <c r="A143" s="41">
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:1" ht="19.899999999999999" customHeight="1">
+    <row r="144" spans="1:20" ht="19.899999999999999" customHeight="1">
       <c r="A144" s="41">
         <v>143</v>
       </c>
